--- a/tools/aicpa/SOC2_2017_with_rev_2022.xlsx
+++ b/tools/aicpa/SOC2_2017_with_rev_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thida\Downloads\CISO ASSISTANT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abder/mydev/intuitem/staging/ciso-assistant-community/tools/aicpa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B58311F-31BE-4BC7-8D5B-90942F4A67F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9007135F-3C7A-5843-BB74-9919D0DC2F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D01D941C-8F4B-437A-8397-2B749EA54579}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="34240" windowHeight="21260" xr2:uid="{D01D941C-8F4B-437A-8397-2B749EA54579}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="1179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="1180">
   <si>
     <t>System Operations</t>
   </si>
@@ -3631,6 +3631,9 @@
     <t>TSP Sección 100
 2017 Trust Services Criteria for Security, Availability, Processing Integrity, Confidentiality, and Privacy (con puntos de atención revisados - 2022)
 TSC presenta criterios de control establecidos por el Comité Ejecutivo de Servicios de Aseguramiento (ASEC) del AICPA para su uso en compromisos de atestación o consultoría para evaluar e informar sobre los controles sobre la seguridad, disponibilidad, integridad de procesamiento, confidencialidad o privacidad de la información y los sistemas utilizados para proporcionar productos o servicios (a) en toda una entidad; (b) a nivel de subsidiaria, división o unidad operativa; (c) dentro de una función relevante para los objetivos operativos, de información o de cumplimiento de la entidad; y (d) para un tipo particular de información utilizada por la entidad. Link: https://www.aicpa-cima.com/resources/download/2017-trust-services-criteria-with-revised-points-of-focus-2022</t>
+  </si>
+  <si>
+    <t>library_publication_date</t>
   </si>
 </sst>
 </file>
@@ -3753,7 +3756,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3833,7 +3836,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3843,8 +3846,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3864,12 +3870,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -4165,17 +4167,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951F4425-FB26-465D-A91F-BEC42F32E716}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="110.85546875" style="29" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="29"/>
+    <col min="2" max="2" width="110.83203125" style="29" customWidth="1"/>
+    <col min="3" max="16384" width="11.5" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -4223,7 +4225,7 @@
       </c>
       <c r="C5" s="31"/>
     </row>
-    <row r="6" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
         <v>1147</v>
       </c>
@@ -4232,7 +4234,7 @@
       </c>
       <c r="C6" s="31"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
         <v>1148</v>
       </c>
@@ -4260,89 +4262,98 @@
       <c r="C9" s="31"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="33" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B10" s="36">
+        <v>45199</v>
+      </c>
+      <c r="C10" s="31"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="30" t="s">
         <v>1154</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B11" s="31" t="s">
         <v>1164</v>
       </c>
-      <c r="C10" s="31"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
+      <c r="C11" s="31"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="33" t="s">
         <v>1155</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B12" s="31" t="s">
         <v>1162</v>
       </c>
-      <c r="C11" s="31"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="C12" s="31"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
         <v>1156</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B13" s="31" t="s">
         <v>1146</v>
       </c>
-      <c r="C12" s="31"/>
-    </row>
-    <row r="13" spans="1:3" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+      <c r="C13" s="31"/>
+    </row>
+    <row r="14" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
         <v>1157</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B14" s="34" t="s">
         <v>1163</v>
       </c>
-      <c r="C13" s="31"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="C14" s="31"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="30" t="s">
         <v>1158</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B15" s="31" t="s">
         <v>1159</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C15" s="31" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
         <v>1165</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B16" s="31" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+    <row r="17" spans="1:2" ht="120" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="s">
         <v>1166</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B17" s="35" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
         <v>1167</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B18" s="34" t="s">
         <v>1149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="29" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
         <v>1169</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B20" s="31" t="s">
         <v>1146</v>
       </c>
     </row>
@@ -4361,18 +4372,18 @@
       <selection pane="bottomLeft" activeCell="B319" sqref="B319"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="15" customWidth="1"/>
     <col min="4" max="4" width="30" style="15" customWidth="1"/>
-    <col min="5" max="5" width="88.140625" customWidth="1"/>
+    <col min="5" max="5" width="88.1640625" customWidth="1"/>
     <col min="6" max="6" width="56" customWidth="1"/>
-    <col min="7" max="7" width="95.28515625" customWidth="1"/>
+    <col min="7" max="7" width="95.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>1059</v>
       </c>
@@ -4395,7 +4406,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="22">
         <v>1</v>
@@ -4410,7 +4421,7 @@
       </c>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6">
         <v>2</v>
@@ -4431,7 +4442,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>1139</v>
       </c>
@@ -4450,7 +4461,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>1139</v>
       </c>
@@ -4469,7 +4480,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>1139</v>
       </c>
@@ -4488,7 +4499,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>1139</v>
       </c>
@@ -4507,7 +4518,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>1139</v>
       </c>
@@ -4526,7 +4537,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6">
         <v>2</v>
@@ -4547,7 +4558,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>1139</v>
       </c>
@@ -4566,7 +4577,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>1139</v>
       </c>
@@ -4585,7 +4596,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>1139</v>
       </c>
@@ -4604,7 +4615,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>1139</v>
       </c>
@@ -4623,7 +4634,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6">
         <v>2</v>
@@ -4644,7 +4655,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>1139</v>
       </c>
@@ -4663,7 +4674,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>1139</v>
       </c>
@@ -4682,7 +4693,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>1139</v>
       </c>
@@ -4701,7 +4712,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>1139</v>
       </c>
@@ -4720,7 +4731,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>1139</v>
       </c>
@@ -4739,7 +4750,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>1139</v>
       </c>
@@ -4758,7 +4769,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="6">
         <v>2</v>
@@ -4779,7 +4790,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>1139</v>
       </c>
@@ -4798,7 +4809,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>1139</v>
       </c>
@@ -4817,7 +4828,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>1139</v>
       </c>
@@ -4836,7 +4847,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>1139</v>
       </c>
@@ -4855,7 +4866,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>1139</v>
       </c>
@@ -4874,7 +4885,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>1139</v>
       </c>
@@ -4893,7 +4904,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>1139</v>
       </c>
@@ -4912,7 +4923,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="6">
         <v>2</v>
@@ -4933,7 +4944,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>1139</v>
       </c>
@@ -4952,7 +4963,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>1139</v>
       </c>
@@ -4971,7 +4982,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>1139</v>
       </c>
@@ -4990,7 +5001,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>1139</v>
       </c>
@@ -5009,7 +5020,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>1139</v>
       </c>
@@ -5028,7 +5039,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>1139</v>
       </c>
@@ -5047,7 +5058,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
       <c r="B36" s="22">
         <v>1</v>
@@ -5062,7 +5073,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4">
         <v>2</v>
@@ -5083,7 +5094,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5102,7 +5113,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5121,7 +5132,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5140,7 +5151,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5159,7 +5170,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5178,7 +5189,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5197,7 +5208,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5216,7 +5227,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5235,7 +5246,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5254,7 +5265,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4">
         <v>2</v>
@@ -5275,7 +5286,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5294,7 +5305,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5313,7 +5324,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5332,7 +5343,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5351,7 +5362,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5370,7 +5381,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5389,7 +5400,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5408,7 +5419,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5427,7 +5438,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5446,7 +5457,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5465,7 +5476,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5484,7 +5495,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5503,7 +5514,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5522,7 +5533,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4">
         <v>2</v>
@@ -5543,7 +5554,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5562,7 +5573,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5581,7 +5592,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5600,7 +5611,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5619,7 +5630,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5638,7 +5649,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5657,7 +5668,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5676,7 +5687,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5695,7 +5706,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5714,7 +5725,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5733,7 +5744,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5752,7 +5763,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>1139</v>
       </c>
@@ -5771,7 +5782,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="26"/>
       <c r="B74" s="26">
         <v>1</v>
@@ -5786,7 +5797,7 @@
       </c>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="6">
         <v>2</v>
@@ -5807,7 +5818,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>1139</v>
       </c>
@@ -5826,7 +5837,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>1139</v>
       </c>
@@ -5845,7 +5856,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>1139</v>
       </c>
@@ -5864,7 +5875,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>1139</v>
       </c>
@@ -5883,7 +5894,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>1139</v>
       </c>
@@ -5902,7 +5913,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>1139</v>
       </c>
@@ -5921,7 +5932,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>1139</v>
       </c>
@@ -5940,7 +5951,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>1139</v>
       </c>
@@ -5959,7 +5970,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>1139</v>
       </c>
@@ -5978,7 +5989,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>1139</v>
       </c>
@@ -5997,7 +6008,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6016,7 +6027,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6035,7 +6046,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6054,7 +6065,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6073,7 +6084,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6092,7 +6103,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6111,7 +6122,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
       <c r="B92" s="6">
         <v>2</v>
@@ -6132,7 +6143,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6151,7 +6162,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6170,7 +6181,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6189,7 +6200,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6208,7 +6219,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6227,7 +6238,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6246,7 +6257,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6265,7 +6276,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6284,7 +6295,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="6">
         <v>2</v>
@@ -6305,7 +6316,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6324,7 +6335,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6343,7 +6354,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6362,7 +6373,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6381,7 +6392,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6400,7 +6411,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="6"/>
       <c r="B107" s="6">
         <v>2</v>
@@ -6421,7 +6432,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6440,7 +6451,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6459,7 +6470,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6478,7 +6489,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6497,7 +6508,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6516,7 +6527,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6535,7 +6546,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="22"/>
       <c r="B114" s="22">
         <v>1</v>
@@ -6550,7 +6561,7 @@
       </c>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A115" s="6"/>
       <c r="B115" s="6">
         <v>2</v>
@@ -6571,7 +6582,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6590,7 +6601,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6609,7 +6620,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6628,7 +6639,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6647,7 +6658,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6666,7 +6677,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6685,7 +6696,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6704,7 +6715,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6723,7 +6734,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A124" s="6"/>
       <c r="B124" s="6">
         <v>2</v>
@@ -6744,7 +6755,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6763,7 +6774,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6782,7 +6793,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6801,7 +6812,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="22"/>
       <c r="B128" s="22">
         <v>1</v>
@@ -6816,7 +6827,7 @@
       </c>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A129" s="6"/>
       <c r="B129" s="6">
         <v>2</v>
@@ -6837,7 +6848,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6856,7 +6867,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6875,7 +6886,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6894,7 +6905,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6913,7 +6924,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6932,7 +6943,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6951,7 +6962,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A136" s="6"/>
       <c r="B136" s="6">
         <v>2</v>
@@ -6972,7 +6983,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>1139</v>
       </c>
@@ -6991,7 +7002,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>1139</v>
       </c>
@@ -7010,7 +7021,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
         <v>1139</v>
       </c>
@@ -7029,7 +7040,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
         <v>1139</v>
       </c>
@@ -7048,7 +7059,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="6"/>
       <c r="B141" s="6">
         <v>2</v>
@@ -7067,7 +7078,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
         <v>1139</v>
       </c>
@@ -7086,7 +7097,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>1139</v>
       </c>
@@ -7105,7 +7116,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
         <v>1139</v>
       </c>
@@ -7124,7 +7135,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
         <v>1139</v>
       </c>
@@ -7143,7 +7154,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>1139</v>
       </c>
@@ -7162,7 +7173,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
         <v>1139</v>
       </c>
@@ -7181,7 +7192,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="22"/>
       <c r="B148" s="22">
         <v>1</v>
@@ -7196,7 +7207,7 @@
       </c>
       <c r="G148" s="3"/>
     </row>
-    <row r="149" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
       <c r="B149" s="4">
         <v>2</v>
@@ -7213,7 +7224,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7232,7 +7243,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7251,7 +7262,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7270,7 +7281,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7289,7 +7300,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7308,7 +7319,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7327,7 +7338,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7346,7 +7357,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7365,7 +7376,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7384,7 +7395,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7403,7 +7414,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7422,7 +7433,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7441,7 +7452,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7460,7 +7471,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A163" s="4"/>
       <c r="B163" s="4">
         <v>2</v>
@@ -7477,7 +7488,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7496,7 +7507,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7515,7 +7526,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7534,7 +7545,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A167" s="4"/>
       <c r="B167" s="4">
         <v>2</v>
@@ -7551,7 +7562,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7570,7 +7581,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7589,7 +7600,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7608,7 +7619,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7627,7 +7638,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
       <c r="B172" s="4">
         <v>2</v>
@@ -7644,7 +7655,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7663,7 +7674,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7682,7 +7693,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7701,7 +7712,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7720,7 +7731,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A177" s="4"/>
       <c r="B177" s="4">
         <v>2</v>
@@ -7737,7 +7748,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7756,7 +7767,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A179" s="4"/>
       <c r="B179" s="4">
         <v>2</v>
@@ -7773,7 +7784,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7792,7 +7803,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7811,7 +7822,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7830,7 +7841,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7849,7 +7860,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A184" s="4"/>
       <c r="B184" s="4">
         <v>2</v>
@@ -7866,7 +7877,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7885,7 +7896,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7904,7 +7915,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7923,7 +7934,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7942,7 +7953,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A189" s="4"/>
       <c r="B189" s="4">
         <v>2</v>
@@ -7959,7 +7970,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7978,7 +7989,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
         <v>1139</v>
       </c>
@@ -7997,7 +8008,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>1139</v>
       </c>
@@ -8016,7 +8027,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>1139</v>
       </c>
@@ -8035,7 +8046,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>1139</v>
       </c>
@@ -8054,7 +8065,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="26"/>
       <c r="B195" s="26">
         <v>1</v>
@@ -8069,7 +8080,7 @@
       </c>
       <c r="G195" s="3"/>
     </row>
-    <row r="196" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A196" s="6"/>
       <c r="B196" s="6">
         <v>2</v>
@@ -8086,7 +8097,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8105,7 +8116,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8124,7 +8135,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8143,7 +8154,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8162,7 +8173,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8181,7 +8192,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A202" s="6"/>
       <c r="B202" s="6">
         <v>2</v>
@@ -8198,7 +8209,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8217,7 +8228,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8236,7 +8247,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8255,7 +8266,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8274,7 +8285,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A207" s="6"/>
       <c r="B207" s="6">
         <v>2</v>
@@ -8291,7 +8302,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8310,7 +8321,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8329,7 +8340,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8348,7 +8359,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8367,7 +8378,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8386,7 +8397,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8405,7 +8416,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8424,7 +8435,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A215" s="6"/>
       <c r="B215" s="6">
         <v>2</v>
@@ -8441,7 +8452,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8460,7 +8471,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8479,7 +8490,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8498,7 +8509,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8517,7 +8528,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8536,7 +8547,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8555,7 +8566,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8574,7 +8585,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8593,7 +8604,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8612,7 +8623,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8631,7 +8642,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8650,7 +8661,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8669,7 +8680,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8688,7 +8699,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8707,7 +8718,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="6"/>
       <c r="B230" s="6">
         <v>2</v>
@@ -8724,7 +8735,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8743,7 +8754,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8762,7 +8773,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8781,7 +8792,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8800,7 +8811,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8819,7 +8830,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8838,7 +8849,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="22"/>
       <c r="B237" s="22">
         <v>1</v>
@@ -8853,7 +8864,7 @@
       </c>
       <c r="G237" s="3"/>
     </row>
-    <row r="238" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A238" s="6"/>
       <c r="B238" s="6">
         <v>2</v>
@@ -8870,7 +8881,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A239" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8889,7 +8900,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8908,7 +8919,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8927,7 +8938,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A242" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8946,7 +8957,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8965,7 +8976,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="s">
         <v>1139</v>
       </c>
@@ -8984,7 +8995,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
         <v>1139</v>
       </c>
@@ -9003,7 +9014,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="6" t="s">
         <v>1139</v>
       </c>
@@ -9022,7 +9033,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A247" s="6" t="s">
         <v>1139</v>
       </c>
@@ -9041,7 +9052,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
         <v>1139</v>
       </c>
@@ -9060,7 +9071,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
         <v>1139</v>
       </c>
@@ -9079,7 +9090,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
         <v>1139</v>
       </c>
@@ -9098,7 +9109,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
         <v>1139</v>
       </c>
@@ -9117,7 +9128,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="s">
         <v>1139</v>
       </c>
@@ -9136,7 +9147,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A253" s="6" t="s">
         <v>1139</v>
       </c>
@@ -9155,7 +9166,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
         <v>1139</v>
       </c>
@@ -9174,7 +9185,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
         <v>1139</v>
       </c>
@@ -9193,7 +9204,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
         <v>1139</v>
       </c>
@@ -9212,7 +9223,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="22"/>
       <c r="B257" s="22">
         <v>1</v>
@@ -9227,7 +9238,7 @@
       </c>
       <c r="G257" s="3"/>
     </row>
-    <row r="258" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A258" s="6"/>
       <c r="B258" s="6">
         <v>2</v>
@@ -9244,7 +9255,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
         <v>1139</v>
       </c>
@@ -9263,7 +9274,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
         <v>1139</v>
       </c>
@@ -9282,7 +9293,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="6"/>
       <c r="B261" s="6">
         <v>2</v>
@@ -9299,7 +9310,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
         <v>1139</v>
       </c>
@@ -9318,7 +9329,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
         <v>1139</v>
       </c>
@@ -9337,7 +9348,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
         <v>1139</v>
       </c>
@@ -9356,7 +9367,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
         <v>1139</v>
       </c>
@@ -9375,7 +9386,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
         <v>1139</v>
       </c>
@@ -9394,7 +9405,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
         <v>1139</v>
       </c>
@@ -9413,7 +9424,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
         <v>1139</v>
       </c>
@@ -9432,7 +9443,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="s">
         <v>1139</v>
       </c>
@@ -9451,7 +9462,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A270" s="6" t="s">
         <v>1139</v>
       </c>
@@ -9470,7 +9481,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A271" s="6" t="s">
         <v>1139</v>
       </c>
@@ -9489,7 +9500,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
         <v>1139</v>
       </c>
@@ -9508,7 +9519,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
         <v>1139</v>
       </c>
@@ -9527,7 +9538,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A274" s="6" t="s">
         <v>1139</v>
       </c>
@@ -9546,7 +9557,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="22"/>
       <c r="B275" s="22">
         <v>1</v>
@@ -9560,7 +9571,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
       <c r="B276" s="4">
         <v>2</v>
@@ -9577,7 +9588,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
         <v>1139</v>
       </c>
@@ -9596,7 +9607,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
         <v>1139</v>
       </c>
@@ -9615,7 +9626,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
         <v>1139</v>
       </c>
@@ -9634,7 +9645,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
       <c r="B280" s="4">
         <v>2</v>
@@ -9651,7 +9662,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
         <v>1139</v>
       </c>
@@ -9670,7 +9681,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
         <v>1139</v>
       </c>
@@ -9689,7 +9700,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
         <v>1139</v>
       </c>
@@ -9708,7 +9719,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
         <v>1139</v>
       </c>
@@ -9727,7 +9738,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
         <v>1139</v>
       </c>
@@ -9746,7 +9757,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
         <v>1139</v>
       </c>
@@ -9765,7 +9776,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="s">
         <v>1139</v>
       </c>
@@ -9784,7 +9795,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
         <v>1139</v>
       </c>
@@ -9803,7 +9814,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
         <v>1139</v>
       </c>
@@ -9822,7 +9833,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
         <v>1139</v>
       </c>
@@ -9841,7 +9852,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="s">
         <v>1139</v>
       </c>
@@ -9860,7 +9871,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
       <c r="B292" s="4">
         <v>2</v>
@@ -9877,7 +9888,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
         <v>1139</v>
       </c>
@@ -9896,7 +9907,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A294" s="4" t="s">
         <v>1139</v>
       </c>
@@ -9915,7 +9926,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="26"/>
       <c r="B295" s="26">
         <v>1</v>
@@ -9930,7 +9941,7 @@
       </c>
       <c r="G295" s="3"/>
     </row>
-    <row r="296" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="B296" s="4">
         <v>2</v>
@@ -9947,7 +9958,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
         <v>1139</v>
       </c>
@@ -9966,7 +9977,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A298" s="4" t="s">
         <v>1139</v>
       </c>
@@ -9985,7 +9996,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A299" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10004,7 +10015,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
       <c r="B300" s="4">
         <v>2</v>
@@ -10021,7 +10032,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10040,7 +10051,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A302" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10059,7 +10070,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A303" s="26"/>
       <c r="B303" s="26">
         <v>1</v>
@@ -10074,7 +10085,7 @@
       </c>
       <c r="G303" s="3"/>
     </row>
-    <row r="304" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10093,7 +10104,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A305" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10112,7 +10123,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A306" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10131,7 +10142,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10150,7 +10161,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A308" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10169,7 +10180,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="26"/>
       <c r="B309" s="26">
         <v>1</v>
@@ -10184,7 +10195,7 @@
       </c>
       <c r="G309" s="3"/>
     </row>
-    <row r="310" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10203,7 +10214,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A311" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10222,7 +10233,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10241,7 +10252,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A313" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10260,7 +10271,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10279,7 +10290,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10298,7 +10309,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
       <c r="B316" s="4">
         <v>3</v>
@@ -10315,7 +10326,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A317" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10334,7 +10345,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A318" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10353,7 +10364,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="B319" s="4">
         <v>2</v>
@@ -10370,7 +10381,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
       <c r="B320" s="4">
         <v>3</v>
@@ -10387,7 +10398,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A321" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10406,7 +10417,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="B322" s="4">
         <v>3</v>
@@ -10423,7 +10434,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A323" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10442,7 +10453,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A324" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10461,7 +10472,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
       <c r="B325" s="4">
         <v>3</v>
@@ -10478,7 +10489,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A326" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10497,7 +10508,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A327" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10516,7 +10527,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A328" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10535,7 +10546,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="B329" s="4">
         <v>2</v>
@@ -10552,7 +10563,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="B330" s="4">
         <v>3</v>
@@ -10569,7 +10580,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A331" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10588,7 +10599,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A332" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10607,7 +10618,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A333" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10626,7 +10637,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A334" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10645,7 +10656,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A335" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10664,7 +10675,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
       <c r="B336" s="4">
         <v>3</v>
@@ -10681,7 +10692,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A337" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10700,7 +10711,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A338" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10719,7 +10730,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A339" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10738,7 +10749,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A340" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10757,7 +10768,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="4">
         <v>2</v>
@@ -10774,7 +10785,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="4">
         <v>3</v>
@@ -10791,7 +10802,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A343" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10810,7 +10821,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A344" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10829,7 +10840,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A345" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10848,7 +10859,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A346" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10867,7 +10878,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A347" s="4"/>
       <c r="B347" s="4">
         <v>3</v>
@@ -10884,7 +10895,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A348" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10903,7 +10914,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A349" s="4"/>
       <c r="B349" s="4">
         <v>3</v>
@@ -10920,7 +10931,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A350" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10939,7 +10950,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
       <c r="B351" s="4">
         <v>3</v>
@@ -10956,7 +10967,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A352" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10975,7 +10986,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A353" s="4" t="s">
         <v>1139</v>
       </c>
@@ -10994,7 +11005,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="354" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A354" s="4" t="s">
         <v>1139</v>
       </c>
@@ -11013,7 +11024,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="355" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
       <c r="B355" s="4">
         <v>3</v>
@@ -11030,7 +11041,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A356" s="4" t="s">
         <v>1139</v>
       </c>
@@ -11049,7 +11060,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A357" s="4" t="s">
         <v>1139</v>
       </c>
@@ -11068,7 +11079,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
       <c r="B358" s="4">
         <v>3</v>
@@ -11085,7 +11096,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A359" s="4" t="s">
         <v>1139</v>
       </c>
@@ -11104,7 +11115,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A360" s="4" t="s">
         <v>1139</v>
       </c>
@@ -11123,7 +11134,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="B361" s="4">
         <v>3</v>
@@ -11140,7 +11151,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A362" s="4" t="s">
         <v>1139</v>
       </c>
@@ -11159,7 +11170,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A363" s="4" t="s">
         <v>1139</v>
       </c>
@@ -11178,7 +11189,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A364" s="4" t="s">
         <v>1139</v>
       </c>
@@ -11197,7 +11208,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="B365" s="4">
         <v>2</v>
@@ -11214,7 +11225,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
       <c r="B366" s="4">
         <v>3</v>
@@ -11231,7 +11242,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A367" s="4" t="s">
         <v>1139</v>
       </c>
@@ -11250,7 +11261,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A368" s="4" t="s">
         <v>1139</v>
       </c>
@@ -11269,7 +11280,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
       <c r="B369" s="4">
         <v>2</v>
@@ -11286,7 +11297,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="370" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
       <c r="B370" s="4">
         <v>3</v>
@@ -11303,7 +11314,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A371" s="4" t="s">
         <v>1139</v>
       </c>
@@ -11322,7 +11333,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="372" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A372" s="4" t="s">
         <v>1139</v>
       </c>
@@ -11341,7 +11352,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A373" s="4" t="s">
         <v>1139</v>
       </c>
@@ -11360,7 +11371,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="374" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A374" s="4" t="s">
         <v>1139</v>
       </c>
@@ -11379,7 +11390,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="375" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A375" s="4" t="s">
         <v>1139</v>
       </c>
@@ -11398,7 +11409,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="376" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A376" s="4" t="s">
         <v>1139</v>
       </c>

--- a/tools/aicpa/SOC2_2017_with_rev_2022.xlsx
+++ b/tools/aicpa/SOC2_2017_with_rev_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abder/mydev/intuitem/staging/ciso-assistant-community/tools/aicpa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/aicpa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9007135F-3C7A-5843-BB74-9919D0DC2F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C2C304-3412-F846-8971-2220FF7A7628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="920" windowWidth="34240" windowHeight="21260" xr2:uid="{D01D941C-8F4B-437A-8397-2B749EA54579}"/>
+    <workbookView xWindow="160" yWindow="500" windowWidth="34240" windowHeight="20580" xr2:uid="{D01D941C-8F4B-437A-8397-2B749EA54579}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="1180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="1193">
   <si>
     <t>System Operations</t>
   </si>
@@ -882,9 +882,6 @@
     <t>CC4.2.1</t>
   </si>
   <si>
-    <t>CC4.2.2.</t>
-  </si>
-  <si>
     <t>CC4.2.3</t>
   </si>
   <si>
@@ -3634,6 +3631,48 @@
   </si>
   <si>
     <t>library_publication_date</t>
+  </si>
+  <si>
+    <t>CC1</t>
+  </si>
+  <si>
+    <t>CC2</t>
+  </si>
+  <si>
+    <t>CC3</t>
+  </si>
+  <si>
+    <t>CC4</t>
+  </si>
+  <si>
+    <t>CC6</t>
+  </si>
+  <si>
+    <t>CC7</t>
+  </si>
+  <si>
+    <t>CC8</t>
+  </si>
+  <si>
+    <t>CC9</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>CC4.2.2</t>
+  </si>
+  <si>
+    <t>CC5</t>
   </si>
 </sst>
 </file>
@@ -4169,8 +4208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951F4425-FB26-465D-A91F-BEC42F32E716}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -4182,16 +4221,16 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B2" s="32">
         <v>1</v>
@@ -4200,161 +4239,161 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>1142</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>1143</v>
       </c>
       <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C4" s="31"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="30" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>1145</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>1146</v>
       </c>
       <c r="C5" s="31"/>
     </row>
     <row r="6" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C6" s="31"/>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B7" s="34" t="s">
         <v>1148</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>1149</v>
       </c>
       <c r="C7" s="31"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>1150</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>1151</v>
       </c>
       <c r="C8" s="31"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>1152</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>1153</v>
       </c>
       <c r="C9" s="31"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B10" s="36">
-        <v>45199</v>
+        <v>45669</v>
       </c>
       <c r="C10" s="31"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="30" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C11" s="31"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C12" s="31"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="30" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C13" s="31"/>
     </row>
     <row r="14" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="30" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>1158</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="C15" s="31" t="s">
         <v>1159</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="120" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="29" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="29" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="29" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
   </sheetData>
@@ -4367,9 +4406,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:G376"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B319" sqref="B319"/>
+      <selection pane="bottomLeft" activeCell="A314" sqref="A314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4385,25 +4424,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1059</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="10" t="s">
         <v>1060</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>1061</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>1055</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -4411,13 +4450,15 @@
       <c r="B2" s="22">
         <v>1</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="19" t="s">
+        <v>1179</v>
+      </c>
       <c r="D2" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="20" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="G2" s="16"/>
     </row>
@@ -4427,114 +4468,114 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>1063</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B4" s="6">
         <v>3</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B5" s="6">
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B6" s="6">
         <v>3</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B7" s="6">
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B8" s="6">
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -4543,95 +4584,95 @@
         <v>2</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>1067</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>1066</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>1069</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B10" s="6">
         <v>3</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B11" s="6">
         <v>3</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B12" s="6">
         <v>3</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B13" s="6">
         <v>3</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -4640,133 +4681,133 @@
         <v>2</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>1071</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>1077</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B15" s="6">
         <v>3</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B16" s="6">
         <v>3</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B17" s="6">
         <v>3</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B18" s="6">
         <v>3</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B19" s="6">
         <v>3</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B20" s="6">
         <v>3</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -4775,152 +4816,152 @@
         <v>2</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D21" s="11" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>1074</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>1073</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>1076</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B22" s="6">
         <v>3</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B23" s="6">
         <v>3</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B24" s="6">
         <v>3</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B25" s="6">
         <v>3</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B26" s="6">
         <v>3</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B27" s="6">
         <v>3</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B28" s="6">
         <v>3</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -4929,133 +4970,133 @@
         <v>2</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D29" s="11" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>1079</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>1081</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B30" s="6">
         <v>3</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B31" s="6">
         <v>3</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B32" s="6">
         <v>3</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B33" s="6">
         <v>3</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B34" s="6">
         <v>3</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B35" s="6">
         <v>3</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5063,13 +5104,15 @@
       <c r="B36" s="22">
         <v>1</v>
       </c>
-      <c r="C36" s="23"/>
+      <c r="C36" s="23" t="s">
+        <v>1180</v>
+      </c>
       <c r="D36" s="23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="24" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="G36" s="3"/>
     </row>
@@ -5079,190 +5122,190 @@
         <v>2</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D37" s="11" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>1083</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B38" s="4">
         <v>3</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B39" s="4">
         <v>3</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B40" s="4">
         <v>3</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B41" s="4">
         <v>3</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B42" s="4">
         <v>3</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B43" s="4">
         <v>3</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B44" s="4">
         <v>3</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B45" s="4">
         <v>3</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B46" s="4">
         <v>3</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -5271,266 +5314,266 @@
         <v>2</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D47" s="11" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>1087</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B48" s="4">
         <v>3</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B49" s="4">
         <v>3</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B50" s="4">
         <v>3</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B51" s="4">
         <v>3</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B52" s="4">
         <v>3</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B53" s="4">
         <v>3</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B54" s="4">
         <v>3</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B55" s="4">
         <v>3</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B56" s="4">
         <v>3</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D56" s="12"/>
       <c r="E56" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B57" s="4">
         <v>3</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B58" s="4">
         <v>3</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D58" s="12"/>
       <c r="E58" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B59" s="4">
         <v>3</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B60" s="4">
         <v>3</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D60" s="12"/>
       <c r="E60" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -5539,247 +5582,247 @@
         <v>2</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D61" s="11" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>1093</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B62" s="4">
         <v>3</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D62" s="12"/>
       <c r="E62" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B63" s="4">
         <v>3</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D63" s="12"/>
       <c r="E63" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B64" s="4">
         <v>3</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D64" s="12"/>
       <c r="E64" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B65" s="4">
         <v>3</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D65" s="12"/>
       <c r="E65" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B66" s="4">
         <v>3</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D66" s="12"/>
       <c r="E66" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B67" s="4">
         <v>3</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B68" s="4">
         <v>3</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D68" s="12"/>
       <c r="E68" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B69" s="4">
         <v>3</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D69" s="12"/>
       <c r="E69" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B70" s="4">
         <v>3</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D70" s="12"/>
       <c r="E70" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B71" s="4">
         <v>3</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D71" s="12"/>
       <c r="E71" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B72" s="4">
         <v>3</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D72" s="12"/>
       <c r="E72" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B73" s="4">
         <v>3</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D73" s="12"/>
       <c r="E73" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -5787,13 +5830,15 @@
       <c r="B74" s="26">
         <v>1</v>
       </c>
-      <c r="C74" s="23"/>
+      <c r="C74" s="23" t="s">
+        <v>1181</v>
+      </c>
       <c r="D74" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="24" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G74" s="3"/>
     </row>
@@ -5803,323 +5848,323 @@
         <v>2</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D75" s="11" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>1097</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>1099</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B76" s="6">
         <v>3</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D76" s="12"/>
       <c r="E76" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B77" s="6">
         <v>3</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D77" s="12"/>
       <c r="E77" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B78" s="6">
         <v>3</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D78" s="12"/>
       <c r="E78" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B79" s="6">
         <v>3</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D79" s="12"/>
       <c r="E79" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B80" s="6">
         <v>3</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D80" s="12"/>
       <c r="E80" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B81" s="6">
         <v>3</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D81" s="12"/>
       <c r="E81" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B82" s="6">
         <v>3</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D82" s="12"/>
       <c r="E82" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B83" s="6">
         <v>3</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D83" s="12"/>
       <c r="E83" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B84" s="6">
         <v>3</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D84" s="12"/>
       <c r="E84" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B85" s="6">
         <v>3</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D85" s="12"/>
       <c r="E85" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B86" s="6">
         <v>3</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D86" s="12"/>
       <c r="E86" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B87" s="6">
         <v>3</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D87" s="12"/>
       <c r="E87" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B88" s="6">
         <v>3</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D88" s="12"/>
       <c r="E88" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B89" s="6">
         <v>3</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D89" s="12"/>
       <c r="E89" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B90" s="6">
         <v>3</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D90" s="12"/>
       <c r="E90" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B91" s="6">
         <v>3</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D91" s="12"/>
       <c r="E91" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -6128,171 +6173,171 @@
         <v>2</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D92" s="11" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>1101</v>
-      </c>
       <c r="G92" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B93" s="6">
         <v>3</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D93" s="12"/>
       <c r="E93" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B94" s="6">
         <v>3</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D94" s="12"/>
       <c r="E94" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B95" s="6">
         <v>3</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D95" s="12"/>
       <c r="E95" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B96" s="6">
         <v>3</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D96" s="12"/>
       <c r="E96" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B97" s="6">
         <v>3</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D97" s="12"/>
       <c r="E97" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B98" s="6">
         <v>3</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D98" s="12"/>
       <c r="E98" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B99" s="6">
         <v>3</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D99" s="12"/>
       <c r="E99" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B100" s="6">
         <v>3</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D100" s="12"/>
       <c r="E100" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -6301,114 +6346,114 @@
         <v>2</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D101" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="G101" s="1" t="s">
         <v>1105</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>1103</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B102" s="6">
         <v>3</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D102" s="12"/>
       <c r="E102" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B103" s="6">
         <v>3</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D103" s="12"/>
       <c r="E103" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B104" s="6">
         <v>3</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D104" s="12"/>
       <c r="E104" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B105" s="6">
         <v>3</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D105" s="12"/>
       <c r="E105" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B106" s="6">
         <v>3</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D106" s="12"/>
       <c r="E106" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -6417,133 +6462,133 @@
         <v>2</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B108" s="6">
         <v>3</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D108" s="12"/>
       <c r="E108" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B109" s="6">
         <v>3</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D109" s="12"/>
       <c r="E109" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B110" s="6">
         <v>3</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D110" s="12"/>
       <c r="E110" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B111" s="6">
         <v>3</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D111" s="12"/>
       <c r="E111" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B112" s="6">
         <v>3</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D112" s="12"/>
       <c r="E112" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B113" s="6">
         <v>3</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D113" s="12"/>
       <c r="E113" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -6551,13 +6596,15 @@
       <c r="B114" s="22">
         <v>1</v>
       </c>
-      <c r="C114" s="23"/>
+      <c r="C114" s="23" t="s">
+        <v>1182</v>
+      </c>
       <c r="D114" s="21" t="s">
         <v>263</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="24" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="G114" s="3"/>
     </row>
@@ -6570,21 +6617,21 @@
         <v>264</v>
       </c>
       <c r="D115" s="11" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="F115" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="G115" s="1" t="s">
         <v>1112</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B116" s="6">
         <v>3</v>
@@ -6594,16 +6641,16 @@
       </c>
       <c r="D116" s="12"/>
       <c r="E116" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B117" s="6">
         <v>3</v>
@@ -6613,16 +6660,16 @@
       </c>
       <c r="D117" s="12"/>
       <c r="E117" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B118" s="6">
         <v>3</v>
@@ -6632,16 +6679,16 @@
       </c>
       <c r="D118" s="12"/>
       <c r="E118" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B119" s="6">
         <v>3</v>
@@ -6651,16 +6698,16 @@
       </c>
       <c r="D119" s="12"/>
       <c r="E119" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F119" s="3"/>
       <c r="G119" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B120" s="6">
         <v>3</v>
@@ -6670,16 +6717,16 @@
       </c>
       <c r="D120" s="12"/>
       <c r="E120" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F120" s="3"/>
       <c r="G120" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B121" s="6">
         <v>3</v>
@@ -6689,16 +6736,16 @@
       </c>
       <c r="D121" s="12"/>
       <c r="E121" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B122" s="6">
         <v>3</v>
@@ -6708,16 +6755,16 @@
       </c>
       <c r="D122" s="12"/>
       <c r="E122" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B123" s="6">
         <v>3</v>
@@ -6727,11 +6774,11 @@
       </c>
       <c r="D123" s="13"/>
       <c r="E123" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -6743,21 +6790,21 @@
         <v>273</v>
       </c>
       <c r="D124" s="11" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="G124" s="1" t="s">
         <v>1117</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>1116</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B125" s="6">
         <v>3</v>
@@ -6767,49 +6814,49 @@
       </c>
       <c r="D125" s="12"/>
       <c r="E125" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B126" s="6">
         <v>3</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>275</v>
+        <v>1191</v>
       </c>
       <c r="D126" s="12"/>
       <c r="E126" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B127" s="6">
         <v>3</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D127" s="12"/>
       <c r="E127" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -6817,13 +6864,15 @@
       <c r="B128" s="22">
         <v>1</v>
       </c>
-      <c r="C128" s="23"/>
+      <c r="C128" s="23" t="s">
+        <v>1192</v>
+      </c>
       <c r="D128" s="21" t="s">
         <v>239</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="24" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G128" s="2"/>
     </row>
@@ -6836,21 +6885,21 @@
         <v>240</v>
       </c>
       <c r="D129" s="11" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F129" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F129" s="1" t="s">
+      <c r="G129" s="1" t="s">
         <v>1120</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B130" s="6">
         <v>3</v>
@@ -6860,16 +6909,16 @@
       </c>
       <c r="D130" s="12"/>
       <c r="E130" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F130" s="3"/>
       <c r="G130" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B131" s="6">
         <v>3</v>
@@ -6879,16 +6928,16 @@
       </c>
       <c r="D131" s="12"/>
       <c r="E131" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F131" s="3"/>
       <c r="G131" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B132" s="6">
         <v>3</v>
@@ -6898,16 +6947,16 @@
       </c>
       <c r="D132" s="12"/>
       <c r="E132" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F132" s="3"/>
       <c r="G132" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B133" s="6">
         <v>3</v>
@@ -6917,16 +6966,16 @@
       </c>
       <c r="D133" s="12"/>
       <c r="E133" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B134" s="6">
         <v>3</v>
@@ -6936,16 +6985,16 @@
       </c>
       <c r="D134" s="12"/>
       <c r="E134" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B135" s="6">
         <v>3</v>
@@ -6955,11 +7004,11 @@
       </c>
       <c r="D135" s="12"/>
       <c r="E135" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F135" s="3"/>
       <c r="G135" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -6971,21 +7020,21 @@
         <v>247</v>
       </c>
       <c r="D136" s="11" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="G136" s="1" t="s">
         <v>1126</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>1124</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B137" s="6">
         <v>3</v>
@@ -6999,12 +7048,12 @@
       </c>
       <c r="F137" s="3"/>
       <c r="G137" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B138" s="6">
         <v>3</v>
@@ -7018,12 +7067,12 @@
       </c>
       <c r="F138" s="3"/>
       <c r="G138" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B139" s="6">
         <v>3</v>
@@ -7037,12 +7086,12 @@
       </c>
       <c r="F139" s="3"/>
       <c r="G139" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B140" s="6">
         <v>3</v>
@@ -7056,7 +7105,7 @@
       </c>
       <c r="F140" s="3"/>
       <c r="G140" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7068,19 +7117,19 @@
         <v>256</v>
       </c>
       <c r="D141" s="11" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E141" s="1" t="s">
         <v>1128</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>1129</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B142" s="6">
         <v>3</v>
@@ -7090,16 +7139,16 @@
       </c>
       <c r="D142" s="12"/>
       <c r="E142" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F142" s="3"/>
       <c r="G142" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B143" s="6">
         <v>3</v>
@@ -7109,16 +7158,16 @@
       </c>
       <c r="D143" s="12"/>
       <c r="E143" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F143" s="3"/>
       <c r="G143" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B144" s="6">
         <v>3</v>
@@ -7128,16 +7177,16 @@
       </c>
       <c r="D144" s="12"/>
       <c r="E144" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B145" s="6">
         <v>3</v>
@@ -7147,16 +7196,16 @@
       </c>
       <c r="D145" s="12"/>
       <c r="E145" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F145" s="3"/>
       <c r="G145" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B146" s="6">
         <v>3</v>
@@ -7166,16 +7215,16 @@
       </c>
       <c r="D146" s="12"/>
       <c r="E146" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F146" s="3"/>
       <c r="G146" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B147" s="6">
         <v>3</v>
@@ -7185,11 +7234,11 @@
       </c>
       <c r="D147" s="12"/>
       <c r="E147" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F147" s="3"/>
       <c r="G147" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -7197,13 +7246,15 @@
       <c r="B148" s="22">
         <v>1</v>
       </c>
-      <c r="C148" s="23"/>
+      <c r="C148" s="23" t="s">
+        <v>1183</v>
+      </c>
       <c r="D148" s="25" t="s">
         <v>157</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="25" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="G148" s="3"/>
     </row>
@@ -7221,12 +7272,12 @@
       </c>
       <c r="F149" s="1"/>
       <c r="G149" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B150" s="4">
         <v>3</v>
@@ -7236,16 +7287,16 @@
       </c>
       <c r="D150" s="12"/>
       <c r="E150" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F150" s="3"/>
       <c r="G150" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B151" s="4">
         <v>3</v>
@@ -7255,16 +7306,16 @@
       </c>
       <c r="D151" s="12"/>
       <c r="E151" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F151" s="3"/>
       <c r="G151" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B152" s="4">
         <v>3</v>
@@ -7274,16 +7325,16 @@
       </c>
       <c r="D152" s="12"/>
       <c r="E152" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F152" s="3"/>
       <c r="G152" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B153" s="4">
         <v>3</v>
@@ -7293,16 +7344,16 @@
       </c>
       <c r="D153" s="12"/>
       <c r="E153" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F153" s="3"/>
       <c r="G153" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B154" s="4">
         <v>3</v>
@@ -7312,16 +7363,16 @@
       </c>
       <c r="D154" s="12"/>
       <c r="E154" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B155" s="4">
         <v>3</v>
@@ -7331,16 +7382,16 @@
       </c>
       <c r="D155" s="12"/>
       <c r="E155" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F155" s="3"/>
       <c r="G155" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B156" s="4">
         <v>3</v>
@@ -7350,16 +7401,16 @@
       </c>
       <c r="D156" s="12"/>
       <c r="E156" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F156" s="3"/>
       <c r="G156" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B157" s="4">
         <v>3</v>
@@ -7369,16 +7420,16 @@
       </c>
       <c r="D157" s="12"/>
       <c r="E157" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F157" s="3"/>
       <c r="G157" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B158" s="4">
         <v>3</v>
@@ -7388,16 +7439,16 @@
       </c>
       <c r="D158" s="12"/>
       <c r="E158" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F158" s="3"/>
       <c r="G158" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B159" s="4">
         <v>3</v>
@@ -7407,16 +7458,16 @@
       </c>
       <c r="D159" s="12"/>
       <c r="E159" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F159" s="3"/>
       <c r="G159" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B160" s="4">
         <v>3</v>
@@ -7426,16 +7477,16 @@
       </c>
       <c r="D160" s="12"/>
       <c r="E160" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F160" s="3"/>
       <c r="G160" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B161" s="4">
         <v>3</v>
@@ -7449,12 +7500,12 @@
       </c>
       <c r="F161" s="3"/>
       <c r="G161" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B162" s="4">
         <v>3</v>
@@ -7468,7 +7519,7 @@
       </c>
       <c r="F162" s="3"/>
       <c r="G162" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -7485,12 +7536,12 @@
       </c>
       <c r="F163" s="1"/>
       <c r="G163" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B164" s="4">
         <v>3</v>
@@ -7504,12 +7555,12 @@
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B165" s="4">
         <v>3</v>
@@ -7523,12 +7574,12 @@
       </c>
       <c r="F165" s="3"/>
       <c r="G165" s="3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B166" s="4">
         <v>3</v>
@@ -7542,7 +7593,7 @@
       </c>
       <c r="F166" s="3"/>
       <c r="G166" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -7559,12 +7610,12 @@
       </c>
       <c r="F167" s="1"/>
       <c r="G167" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B168" s="4">
         <v>3</v>
@@ -7578,12 +7629,12 @@
       </c>
       <c r="F168" s="3"/>
       <c r="G168" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B169" s="4">
         <v>3</v>
@@ -7597,12 +7648,12 @@
       </c>
       <c r="F169" s="3"/>
       <c r="G169" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B170" s="4">
         <v>3</v>
@@ -7616,12 +7667,12 @@
       </c>
       <c r="F170" s="3"/>
       <c r="G170" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B171" s="4">
         <v>3</v>
@@ -7635,7 +7686,7 @@
       </c>
       <c r="F171" s="3"/>
       <c r="G171" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -7652,12 +7703,12 @@
       </c>
       <c r="F172" s="1"/>
       <c r="G172" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B173" s="4">
         <v>3</v>
@@ -7671,12 +7722,12 @@
       </c>
       <c r="F173" s="3"/>
       <c r="G173" s="3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B174" s="4">
         <v>3</v>
@@ -7690,12 +7741,12 @@
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B175" s="4">
         <v>3</v>
@@ -7709,12 +7760,12 @@
       </c>
       <c r="F175" s="3"/>
       <c r="G175" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B176" s="4">
         <v>3</v>
@@ -7728,7 +7779,7 @@
       </c>
       <c r="F176" s="3"/>
       <c r="G176" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -7745,12 +7796,12 @@
       </c>
       <c r="F177" s="1"/>
       <c r="G177" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B178" s="4">
         <v>3</v>
@@ -7764,7 +7815,7 @@
       </c>
       <c r="F178" s="3"/>
       <c r="G178" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -7781,12 +7832,12 @@
       </c>
       <c r="F179" s="1"/>
       <c r="G179" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B180" s="4">
         <v>3</v>
@@ -7800,12 +7851,12 @@
       </c>
       <c r="F180" s="3"/>
       <c r="G180" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B181" s="4">
         <v>3</v>
@@ -7819,12 +7870,12 @@
       </c>
       <c r="F181" s="3"/>
       <c r="G181" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B182" s="4">
         <v>3</v>
@@ -7838,12 +7889,12 @@
       </c>
       <c r="F182" s="3"/>
       <c r="G182" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B183" s="4">
         <v>3</v>
@@ -7857,7 +7908,7 @@
       </c>
       <c r="F183" s="3"/>
       <c r="G183" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -7874,12 +7925,12 @@
       </c>
       <c r="F184" s="1"/>
       <c r="G184" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B185" s="4">
         <v>3</v>
@@ -7893,12 +7944,12 @@
       </c>
       <c r="F185" s="3"/>
       <c r="G185" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B186" s="4">
         <v>3</v>
@@ -7912,12 +7963,12 @@
       </c>
       <c r="F186" s="3"/>
       <c r="G186" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B187" s="4">
         <v>3</v>
@@ -7931,12 +7982,12 @@
       </c>
       <c r="F187" s="3"/>
       <c r="G187" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B188" s="4">
         <v>3</v>
@@ -7950,7 +8001,7 @@
       </c>
       <c r="F188" s="3"/>
       <c r="G188" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -7967,12 +8018,12 @@
       </c>
       <c r="F189" s="1"/>
       <c r="G189" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B190" s="4">
         <v>3</v>
@@ -7986,12 +8037,12 @@
       </c>
       <c r="F190" s="3"/>
       <c r="G190" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B191" s="4">
         <v>3</v>
@@ -8005,12 +8056,12 @@
       </c>
       <c r="F191" s="3"/>
       <c r="G191" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B192" s="4">
         <v>3</v>
@@ -8024,12 +8075,12 @@
       </c>
       <c r="F192" s="3"/>
       <c r="G192" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B193" s="4">
         <v>3</v>
@@ -8043,12 +8094,12 @@
       </c>
       <c r="F193" s="3"/>
       <c r="G193" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B194" s="4">
         <v>3</v>
@@ -8062,7 +8113,7 @@
       </c>
       <c r="F194" s="3"/>
       <c r="G194" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -8070,13 +8121,15 @@
       <c r="B195" s="26">
         <v>1</v>
       </c>
-      <c r="C195" s="23"/>
+      <c r="C195" s="23" t="s">
+        <v>1184</v>
+      </c>
       <c r="D195" s="21" t="s">
         <v>0</v>
       </c>
       <c r="E195" s="3"/>
       <c r="F195" s="24" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="G195" s="3"/>
     </row>
@@ -8094,12 +8147,12 @@
       </c>
       <c r="F196" s="1"/>
       <c r="G196" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B197" s="6">
         <v>3</v>
@@ -8113,12 +8166,12 @@
       </c>
       <c r="F197" s="7"/>
       <c r="G197" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B198" s="6">
         <v>3</v>
@@ -8132,12 +8185,12 @@
       </c>
       <c r="F198" s="7"/>
       <c r="G198" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B199" s="6">
         <v>3</v>
@@ -8151,12 +8204,12 @@
       </c>
       <c r="F199" s="7"/>
       <c r="G199" s="3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B200" s="6">
         <v>3</v>
@@ -8170,12 +8223,12 @@
       </c>
       <c r="F200" s="7"/>
       <c r="G200" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B201" s="6">
         <v>3</v>
@@ -8189,7 +8242,7 @@
       </c>
       <c r="F201" s="7"/>
       <c r="G201" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -8206,12 +8259,12 @@
       </c>
       <c r="F202" s="1"/>
       <c r="G202" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B203" s="6">
         <v>3</v>
@@ -8225,12 +8278,12 @@
       </c>
       <c r="F203" s="3"/>
       <c r="G203" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B204" s="6">
         <v>3</v>
@@ -8244,12 +8297,12 @@
       </c>
       <c r="F204" s="3"/>
       <c r="G204" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B205" s="6">
         <v>3</v>
@@ -8263,12 +8316,12 @@
       </c>
       <c r="F205" s="3"/>
       <c r="G205" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B206" s="6">
         <v>3</v>
@@ -8282,7 +8335,7 @@
       </c>
       <c r="F206" s="3"/>
       <c r="G206" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -8299,12 +8352,12 @@
       </c>
       <c r="F207" s="1"/>
       <c r="G207" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B208" s="6">
         <v>3</v>
@@ -8318,12 +8371,12 @@
       </c>
       <c r="F208" s="3"/>
       <c r="G208" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B209" s="6">
         <v>3</v>
@@ -8337,12 +8390,12 @@
       </c>
       <c r="F209" s="3"/>
       <c r="G209" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B210" s="6">
         <v>3</v>
@@ -8356,12 +8409,12 @@
       </c>
       <c r="F210" s="3"/>
       <c r="G210" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B211" s="6">
         <v>3</v>
@@ -8375,12 +8428,12 @@
       </c>
       <c r="F211" s="3"/>
       <c r="G211" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B212" s="6">
         <v>3</v>
@@ -8394,12 +8447,12 @@
       </c>
       <c r="F212" s="3"/>
       <c r="G212" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B213" s="6">
         <v>3</v>
@@ -8413,12 +8466,12 @@
       </c>
       <c r="F213" s="3"/>
       <c r="G213" s="3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B214" s="6">
         <v>3</v>
@@ -8432,7 +8485,7 @@
       </c>
       <c r="F214" s="3"/>
       <c r="G214" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -8449,12 +8502,12 @@
       </c>
       <c r="F215" s="1"/>
       <c r="G215" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B216" s="6">
         <v>3</v>
@@ -8468,12 +8521,12 @@
       </c>
       <c r="F216" s="3"/>
       <c r="G216" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B217" s="6">
         <v>3</v>
@@ -8487,12 +8540,12 @@
       </c>
       <c r="F217" s="3"/>
       <c r="G217" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B218" s="6">
         <v>3</v>
@@ -8506,12 +8559,12 @@
       </c>
       <c r="F218" s="3"/>
       <c r="G218" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B219" s="6">
         <v>3</v>
@@ -8525,12 +8578,12 @@
       </c>
       <c r="F219" s="3"/>
       <c r="G219" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B220" s="6">
         <v>3</v>
@@ -8544,12 +8597,12 @@
       </c>
       <c r="F220" s="3"/>
       <c r="G220" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B221" s="6">
         <v>3</v>
@@ -8563,12 +8616,12 @@
       </c>
       <c r="F221" s="3"/>
       <c r="G221" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B222" s="6">
         <v>3</v>
@@ -8582,12 +8635,12 @@
       </c>
       <c r="F222" s="3"/>
       <c r="G222" s="3" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B223" s="6">
         <v>3</v>
@@ -8601,12 +8654,12 @@
       </c>
       <c r="F223" s="3"/>
       <c r="G223" s="3" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B224" s="6">
         <v>3</v>
@@ -8620,12 +8673,12 @@
       </c>
       <c r="F224" s="3"/>
       <c r="G224" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B225" s="6">
         <v>3</v>
@@ -8639,12 +8692,12 @@
       </c>
       <c r="F225" s="3"/>
       <c r="G225" s="3" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B226" s="6">
         <v>3</v>
@@ -8658,12 +8711,12 @@
       </c>
       <c r="F226" s="3"/>
       <c r="G226" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B227" s="6">
         <v>3</v>
@@ -8677,12 +8730,12 @@
       </c>
       <c r="F227" s="3"/>
       <c r="G227" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B228" s="6">
         <v>3</v>
@@ -8696,12 +8749,12 @@
       </c>
       <c r="F228" s="3"/>
       <c r="G228" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B229" s="6">
         <v>3</v>
@@ -8715,7 +8768,7 @@
       </c>
       <c r="F229" s="3"/>
       <c r="G229" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
@@ -8732,12 +8785,12 @@
       </c>
       <c r="F230" s="8"/>
       <c r="G230" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B231" s="6">
         <v>3</v>
@@ -8751,12 +8804,12 @@
       </c>
       <c r="F231" s="3"/>
       <c r="G231" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B232" s="6">
         <v>3</v>
@@ -8770,12 +8823,12 @@
       </c>
       <c r="F232" s="3"/>
       <c r="G232" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B233" s="6">
         <v>3</v>
@@ -8789,12 +8842,12 @@
       </c>
       <c r="F233" s="3"/>
       <c r="G233" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B234" s="6">
         <v>3</v>
@@ -8808,12 +8861,12 @@
       </c>
       <c r="F234" s="3"/>
       <c r="G234" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B235" s="6">
         <v>3</v>
@@ -8827,12 +8880,12 @@
       </c>
       <c r="F235" s="3"/>
       <c r="G235" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B236" s="6">
         <v>3</v>
@@ -8846,7 +8899,7 @@
       </c>
       <c r="F236" s="3"/>
       <c r="G236" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -8854,13 +8907,15 @@
       <c r="B237" s="22">
         <v>1</v>
       </c>
-      <c r="C237" s="28"/>
+      <c r="C237" s="28" t="s">
+        <v>1185</v>
+      </c>
       <c r="D237" s="21" t="s">
         <v>83</v>
       </c>
       <c r="E237" s="3"/>
       <c r="F237" s="24" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G237" s="3"/>
     </row>
@@ -8878,12 +8933,12 @@
       </c>
       <c r="F238" s="1"/>
       <c r="G238" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A239" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B239" s="6">
         <v>3</v>
@@ -8897,12 +8952,12 @@
       </c>
       <c r="F239" s="3"/>
       <c r="G239" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B240" s="6">
         <v>3</v>
@@ -8916,12 +8971,12 @@
       </c>
       <c r="F240" s="3"/>
       <c r="G240" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B241" s="6">
         <v>3</v>
@@ -8935,12 +8990,12 @@
       </c>
       <c r="F241" s="3"/>
       <c r="G241" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A242" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B242" s="6">
         <v>3</v>
@@ -8954,12 +9009,12 @@
       </c>
       <c r="F242" s="3"/>
       <c r="G242" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B243" s="6">
         <v>3</v>
@@ -8973,12 +9028,12 @@
       </c>
       <c r="F243" s="3"/>
       <c r="G243" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B244" s="6">
         <v>3</v>
@@ -8992,12 +9047,12 @@
       </c>
       <c r="F244" s="3"/>
       <c r="G244" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B245" s="6">
         <v>3</v>
@@ -9011,12 +9066,12 @@
       </c>
       <c r="F245" s="3"/>
       <c r="G245" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B246" s="6">
         <v>3</v>
@@ -9030,12 +9085,12 @@
       </c>
       <c r="F246" s="3"/>
       <c r="G246" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A247" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B247" s="6">
         <v>3</v>
@@ -9049,12 +9104,12 @@
       </c>
       <c r="F247" s="3"/>
       <c r="G247" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B248" s="6">
         <v>3</v>
@@ -9068,12 +9123,12 @@
       </c>
       <c r="F248" s="3"/>
       <c r="G248" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B249" s="6">
         <v>3</v>
@@ -9087,12 +9142,12 @@
       </c>
       <c r="F249" s="3"/>
       <c r="G249" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B250" s="6">
         <v>3</v>
@@ -9106,12 +9161,12 @@
       </c>
       <c r="F250" s="3"/>
       <c r="G250" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B251" s="6">
         <v>3</v>
@@ -9125,12 +9180,12 @@
       </c>
       <c r="F251" s="3"/>
       <c r="G251" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B252" s="6">
         <v>3</v>
@@ -9144,12 +9199,12 @@
       </c>
       <c r="F252" s="3"/>
       <c r="G252" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A253" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B253" s="6">
         <v>3</v>
@@ -9163,12 +9218,12 @@
       </c>
       <c r="F253" s="3"/>
       <c r="G253" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B254" s="6">
         <v>3</v>
@@ -9182,12 +9237,12 @@
       </c>
       <c r="F254" s="3"/>
       <c r="G254" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B255" s="6">
         <v>3</v>
@@ -9201,12 +9256,12 @@
       </c>
       <c r="F255" s="3"/>
       <c r="G255" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B256" s="6">
         <v>3</v>
@@ -9220,7 +9275,7 @@
       </c>
       <c r="F256" s="3"/>
       <c r="G256" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -9228,13 +9283,15 @@
       <c r="B257" s="22">
         <v>1</v>
       </c>
-      <c r="C257" s="28"/>
+      <c r="C257" s="28" t="s">
+        <v>1186</v>
+      </c>
       <c r="D257" s="21" t="s">
         <v>122</v>
       </c>
       <c r="E257" s="3"/>
       <c r="F257" s="24" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="G257" s="3"/>
     </row>
@@ -9252,12 +9309,12 @@
       </c>
       <c r="F258" s="1"/>
       <c r="G258" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B259" s="6">
         <v>3</v>
@@ -9271,12 +9328,12 @@
       </c>
       <c r="F259" s="3"/>
       <c r="G259" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B260" s="6">
         <v>3</v>
@@ -9290,7 +9347,7 @@
       </c>
       <c r="F260" s="3"/>
       <c r="G260" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -9307,12 +9364,12 @@
       </c>
       <c r="F261" s="1"/>
       <c r="G261" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B262" s="6">
         <v>3</v>
@@ -9326,12 +9383,12 @@
       </c>
       <c r="F262" s="3"/>
       <c r="G262" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B263" s="6">
         <v>3</v>
@@ -9345,12 +9402,12 @@
       </c>
       <c r="F263" s="3"/>
       <c r="G263" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B264" s="6">
         <v>3</v>
@@ -9364,12 +9421,12 @@
       </c>
       <c r="F264" s="3"/>
       <c r="G264" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B265" s="6">
         <v>3</v>
@@ -9383,12 +9440,12 @@
       </c>
       <c r="F265" s="3"/>
       <c r="G265" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B266" s="6">
         <v>3</v>
@@ -9402,12 +9459,12 @@
       </c>
       <c r="F266" s="3"/>
       <c r="G266" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B267" s="6">
         <v>3</v>
@@ -9421,12 +9478,12 @@
       </c>
       <c r="F267" s="3"/>
       <c r="G267" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B268" s="6">
         <v>3</v>
@@ -9440,12 +9497,12 @@
       </c>
       <c r="F268" s="3"/>
       <c r="G268" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B269" s="6">
         <v>3</v>
@@ -9459,12 +9516,12 @@
       </c>
       <c r="F269" s="3"/>
       <c r="G269" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A270" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B270" s="6">
         <v>3</v>
@@ -9478,12 +9535,12 @@
       </c>
       <c r="F270" s="3"/>
       <c r="G270" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A271" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B271" s="6">
         <v>3</v>
@@ -9497,12 +9554,12 @@
       </c>
       <c r="F271" s="3"/>
       <c r="G271" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B272" s="6">
         <v>3</v>
@@ -9516,12 +9573,12 @@
       </c>
       <c r="F272" s="3"/>
       <c r="G272" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B273" s="6">
         <v>3</v>
@@ -9535,12 +9592,12 @@
       </c>
       <c r="F273" s="3"/>
       <c r="G273" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A274" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B274" s="6">
         <v>3</v>
@@ -9554,7 +9611,7 @@
       </c>
       <c r="F274" s="3"/>
       <c r="G274" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -9562,13 +9619,15 @@
       <c r="B275" s="22">
         <v>1</v>
       </c>
-      <c r="C275" s="28"/>
+      <c r="C275" s="28" t="s">
+        <v>1187</v>
+      </c>
       <c r="D275" s="25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E275" s="3"/>
       <c r="F275" s="24" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -9577,72 +9636,72 @@
         <v>2</v>
       </c>
       <c r="C276" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D276" s="9"/>
       <c r="E276" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F276" s="1"/>
       <c r="G276" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B277" s="4">
         <v>3</v>
       </c>
       <c r="C277" s="13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D277" s="13"/>
       <c r="E277" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F277" s="3"/>
       <c r="G277" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B278" s="4">
         <v>3</v>
       </c>
       <c r="C278" s="13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D278" s="13"/>
       <c r="E278" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F278" s="3"/>
       <c r="G278" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B279" s="4">
         <v>3</v>
       </c>
       <c r="C279" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D279" s="13"/>
       <c r="E279" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F279" s="3"/>
       <c r="G279" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -9651,224 +9710,224 @@
         <v>2</v>
       </c>
       <c r="C280" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D280" s="9"/>
       <c r="E280" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F280" s="1"/>
       <c r="G280" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B281" s="4">
         <v>3</v>
       </c>
       <c r="C281" s="13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D281" s="13"/>
       <c r="E281" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F281" s="3"/>
       <c r="G281" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="282" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B282" s="4">
         <v>3</v>
       </c>
       <c r="C282" s="13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D282" s="13"/>
       <c r="E282" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F282" s="3"/>
       <c r="G282" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B283" s="4">
         <v>3</v>
       </c>
       <c r="C283" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D283" s="13"/>
       <c r="E283" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F283" s="3"/>
       <c r="G283" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B284" s="4">
         <v>3</v>
       </c>
       <c r="C284" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D284" s="13"/>
       <c r="E284" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F284" s="3"/>
       <c r="G284" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B285" s="4">
         <v>3</v>
       </c>
       <c r="C285" s="13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D285" s="13"/>
       <c r="E285" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F285" s="3"/>
       <c r="G285" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B286" s="4">
         <v>3</v>
       </c>
       <c r="C286" s="13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D286" s="13"/>
       <c r="E286" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F286" s="3"/>
       <c r="G286" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B287" s="4">
         <v>3</v>
       </c>
       <c r="C287" s="13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D287" s="13"/>
       <c r="E287" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F287" s="3"/>
       <c r="G287" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B288" s="4">
         <v>3</v>
       </c>
       <c r="C288" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D288" s="13"/>
       <c r="E288" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F288" s="3"/>
       <c r="G288" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B289" s="4">
         <v>3</v>
       </c>
       <c r="C289" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D289" s="13"/>
       <c r="E289" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F289" s="3"/>
       <c r="G289" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B290" s="4">
         <v>3</v>
       </c>
       <c r="C290" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D290" s="13"/>
       <c r="E290" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F290" s="3"/>
       <c r="G290" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B291" s="4">
         <v>3</v>
       </c>
       <c r="C291" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D291" s="13"/>
       <c r="E291" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F291" s="3"/>
       <c r="G291" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9877,53 +9936,53 @@
         <v>2</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D292" s="9"/>
       <c r="E292" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F292" s="1"/>
       <c r="G292" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B293" s="4">
         <v>3</v>
       </c>
       <c r="C293" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D293" s="13"/>
       <c r="E293" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F293" s="3"/>
       <c r="G293" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A294" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B294" s="4">
         <v>3</v>
       </c>
       <c r="C294" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D294" s="13"/>
       <c r="E294" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F294" s="3"/>
       <c r="G294" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -9931,13 +9990,15 @@
       <c r="B295" s="26">
         <v>1</v>
       </c>
-      <c r="C295" s="28"/>
+      <c r="C295" s="28" t="s">
+        <v>1188</v>
+      </c>
       <c r="D295" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E295" s="3"/>
       <c r="F295" s="24" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="G295" s="3"/>
     </row>
@@ -9947,72 +10008,72 @@
         <v>2</v>
       </c>
       <c r="C296" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D296" s="9"/>
       <c r="E296" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F296" s="1"/>
       <c r="G296" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B297" s="4">
         <v>3</v>
       </c>
       <c r="C297" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D297" s="13"/>
       <c r="E297" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F297" s="3"/>
       <c r="G297" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A298" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B298" s="4">
         <v>3</v>
       </c>
       <c r="C298" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D298" s="13"/>
       <c r="E298" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F298" s="3"/>
       <c r="G298" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A299" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B299" s="4">
         <v>3</v>
       </c>
       <c r="C299" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D299" s="13"/>
       <c r="E299" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F299" s="3"/>
       <c r="G299" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -10021,53 +10082,53 @@
         <v>2</v>
       </c>
       <c r="C300" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D300" s="9"/>
       <c r="E300" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F300" s="1"/>
       <c r="G300" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B301" s="4">
         <v>3</v>
       </c>
       <c r="C301" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D301" s="13"/>
       <c r="E301" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F301" s="3"/>
       <c r="G301" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A302" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B302" s="4">
         <v>3</v>
       </c>
       <c r="C302" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D302" s="13"/>
       <c r="E302" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F302" s="3"/>
       <c r="G302" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="80" x14ac:dyDescent="0.2">
@@ -10075,109 +10136,111 @@
       <c r="B303" s="26">
         <v>1</v>
       </c>
-      <c r="C303" s="28"/>
+      <c r="C303" s="28" t="s">
+        <v>1189</v>
+      </c>
       <c r="D303" s="25" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E303" s="3"/>
       <c r="F303" s="24" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="G303" s="3"/>
     </row>
     <row r="304" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B304" s="4">
         <v>2</v>
       </c>
       <c r="C304" s="13" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D304" s="13"/>
       <c r="E304" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F304" s="3"/>
       <c r="G304" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A305" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B305" s="4">
         <v>2</v>
       </c>
       <c r="C305" s="13" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D305" s="13"/>
       <c r="E305" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F305" s="3"/>
       <c r="G305" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A306" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B306" s="4">
         <v>2</v>
       </c>
       <c r="C306" s="13" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D306" s="13"/>
       <c r="E306" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F306" s="3"/>
       <c r="G306" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B307" s="4">
         <v>2</v>
       </c>
       <c r="C307" s="13" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D307" s="13"/>
       <c r="E307" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F307" s="3"/>
       <c r="G307" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A308" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B308" s="4">
         <v>2</v>
       </c>
       <c r="C308" s="13" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D308" s="13"/>
       <c r="E308" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F308" s="3"/>
       <c r="G308" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -10185,128 +10248,124 @@
       <c r="B309" s="26">
         <v>1</v>
       </c>
-      <c r="C309" s="28"/>
+      <c r="C309" s="28" t="s">
+        <v>1190</v>
+      </c>
       <c r="D309" s="25" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E309" s="3"/>
       <c r="F309" s="24" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="G309" s="3"/>
     </row>
     <row r="310" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="4" t="s">
-        <v>1139</v>
-      </c>
+      <c r="A310" s="4"/>
       <c r="B310" s="4">
         <v>2</v>
       </c>
       <c r="C310" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D310" s="9"/>
       <c r="E310" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F310" s="1"/>
       <c r="G310" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A311" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B311" s="4">
         <v>3</v>
       </c>
       <c r="C311" s="13" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D311" s="13"/>
       <c r="E311" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F311" s="3"/>
       <c r="G311" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A312" s="4" t="s">
-        <v>1139</v>
-      </c>
+      <c r="A312" s="4"/>
       <c r="B312" s="4">
         <v>2</v>
       </c>
       <c r="C312" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D312" s="9"/>
       <c r="E312" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F312" s="1"/>
       <c r="G312" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A313" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B313" s="4">
         <v>3</v>
       </c>
       <c r="C313" s="12" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D313" s="12"/>
       <c r="E313" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F313" s="3"/>
       <c r="G313" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="314" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A314" s="4" t="s">
-        <v>1139</v>
-      </c>
+      <c r="A314" s="4"/>
       <c r="B314" s="4">
         <v>2</v>
       </c>
       <c r="C314" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D314" s="9"/>
       <c r="E314" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F314" s="1"/>
       <c r="G314" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B315" s="4">
         <v>3</v>
       </c>
       <c r="C315" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D315" s="12"/>
       <c r="E315" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F315" s="2"/>
       <c r="G315" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -10315,53 +10374,53 @@
         <v>3</v>
       </c>
       <c r="C316" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D316" s="12"/>
       <c r="E316" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F316" s="2"/>
       <c r="G316" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A317" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B317" s="4">
         <v>4</v>
       </c>
       <c r="C317" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D317" s="12"/>
       <c r="E317" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F317" s="3"/>
       <c r="G317" s="3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A318" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B318" s="4">
         <v>4</v>
       </c>
       <c r="C318" s="12" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D318" s="12"/>
       <c r="E318" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F318" s="3"/>
       <c r="G318" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="319" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -10370,15 +10429,15 @@
         <v>2</v>
       </c>
       <c r="C319" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D319" s="9"/>
       <c r="E319" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F319" s="1"/>
       <c r="G319" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="320" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -10387,34 +10446,34 @@
         <v>3</v>
       </c>
       <c r="C320" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D320" s="12"/>
       <c r="E320" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F320" s="3"/>
       <c r="G320" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A321" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B321" s="4">
         <v>4</v>
       </c>
       <c r="C321" s="12" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D321" s="12"/>
       <c r="E321" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F321" s="3"/>
       <c r="G321" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -10423,53 +10482,53 @@
         <v>3</v>
       </c>
       <c r="C322" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D322" s="12"/>
       <c r="E322" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F322" s="3"/>
       <c r="G322" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A323" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B323" s="4">
         <v>4</v>
       </c>
       <c r="C323" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D323" s="12"/>
       <c r="E323" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F323" s="3"/>
       <c r="G323" s="3" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A324" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B324" s="4">
         <v>4</v>
       </c>
       <c r="C324" s="12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D324" s="12"/>
       <c r="E324" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F324" s="3"/>
       <c r="G324" s="3" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -10478,72 +10537,72 @@
         <v>3</v>
       </c>
       <c r="C325" s="12" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D325" s="12"/>
       <c r="E325" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F325" s="3"/>
       <c r="G325" s="3" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A326" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B326" s="4">
         <v>4</v>
       </c>
       <c r="C326" s="12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D326" s="12"/>
       <c r="E326" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F326" s="3"/>
       <c r="G326" s="3" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A327" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B327" s="4">
         <v>4</v>
       </c>
       <c r="C327" s="12" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D327" s="12"/>
       <c r="E327" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F327" s="3"/>
       <c r="G327" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A328" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B328" s="4">
         <v>4</v>
       </c>
       <c r="C328" s="12" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D328" s="12"/>
       <c r="E328" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F328" s="3"/>
       <c r="G328" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="329" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -10552,15 +10611,15 @@
         <v>2</v>
       </c>
       <c r="C329" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D329" s="9"/>
       <c r="E329" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F329" s="1"/>
       <c r="G329" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="330" spans="1:7" ht="80" x14ac:dyDescent="0.2">
@@ -10569,110 +10628,110 @@
         <v>3</v>
       </c>
       <c r="C330" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D330" s="12"/>
       <c r="E330" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F330" s="3"/>
       <c r="G330" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="331" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A331" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B331" s="4">
         <v>4</v>
       </c>
       <c r="C331" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D331" s="12"/>
       <c r="E331" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F331" s="3"/>
       <c r="G331" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A332" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B332" s="4">
         <v>4</v>
       </c>
       <c r="C332" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D332" s="12"/>
       <c r="E332" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F332" s="3"/>
       <c r="G332" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="333" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A333" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B333" s="4">
         <v>4</v>
       </c>
       <c r="C333" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D333" s="12"/>
       <c r="E333" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F333" s="3"/>
       <c r="G333" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A334" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B334" s="4">
         <v>4</v>
       </c>
       <c r="C334" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D334" s="12"/>
       <c r="E334" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F334" s="3"/>
       <c r="G334" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="335" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A335" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B335" s="4">
         <v>4</v>
       </c>
       <c r="C335" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D335" s="12"/>
       <c r="E335" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F335" s="3"/>
       <c r="G335" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="336" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -10681,91 +10740,91 @@
         <v>3</v>
       </c>
       <c r="C336" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D336" s="12"/>
       <c r="E336" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F336" s="3"/>
       <c r="G336" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="337" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A337" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B337" s="4">
         <v>4</v>
       </c>
       <c r="C337" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D337" s="12"/>
       <c r="E337" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F337" s="3"/>
       <c r="G337" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A338" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B338" s="4">
         <v>4</v>
       </c>
       <c r="C338" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D338" s="12"/>
       <c r="E338" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F338" s="3"/>
       <c r="G338" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="339" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A339" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B339" s="4">
         <v>4</v>
       </c>
       <c r="C339" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D339" s="12"/>
       <c r="E339" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F339" s="3"/>
       <c r="G339" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="340" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A340" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B340" s="4">
         <v>4</v>
       </c>
       <c r="C340" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D340" s="12"/>
       <c r="E340" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F340" s="3"/>
       <c r="G340" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="341" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -10774,15 +10833,15 @@
         <v>2</v>
       </c>
       <c r="C341" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D341" s="9"/>
       <c r="E341" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F341" s="1"/>
       <c r="G341" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -10791,91 +10850,91 @@
         <v>3</v>
       </c>
       <c r="C342" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D342" s="12"/>
       <c r="E342" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F342" s="3"/>
       <c r="G342" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="343" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A343" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B343" s="4">
         <v>4</v>
       </c>
       <c r="C343" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D343" s="12"/>
       <c r="E343" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F343" s="3"/>
       <c r="G343" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="344" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A344" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B344" s="4">
         <v>4</v>
       </c>
       <c r="C344" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D344" s="12"/>
       <c r="E344" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F344" s="3"/>
       <c r="G344" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="345" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A345" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B345" s="4">
         <v>4</v>
       </c>
       <c r="C345" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D345" s="12"/>
       <c r="E345" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F345" s="3"/>
       <c r="G345" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="346" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A346" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B346" s="4">
         <v>4</v>
       </c>
       <c r="C346" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D346" s="12"/>
       <c r="E346" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F346" s="3"/>
       <c r="G346" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="347" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -10884,34 +10943,34 @@
         <v>3</v>
       </c>
       <c r="C347" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D347" s="12"/>
       <c r="E347" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F347" s="3"/>
       <c r="G347" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="348" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A348" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B348" s="4">
         <v>4</v>
       </c>
       <c r="C348" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D348" s="12"/>
       <c r="E348" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F348" s="3"/>
       <c r="G348" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="349" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -10920,34 +10979,34 @@
         <v>3</v>
       </c>
       <c r="C349" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D349" s="12"/>
       <c r="E349" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F349" s="3"/>
       <c r="G349" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="350" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A350" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B350" s="4">
         <v>4</v>
       </c>
       <c r="C350" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D350" s="12"/>
       <c r="E350" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F350" s="3"/>
       <c r="G350" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="351" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -10956,72 +11015,72 @@
         <v>3</v>
       </c>
       <c r="C351" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D351" s="12"/>
       <c r="E351" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F351" s="3"/>
       <c r="G351" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="352" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A352" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B352" s="4">
         <v>4</v>
       </c>
       <c r="C352" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D352" s="12"/>
       <c r="E352" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F352" s="3"/>
       <c r="G352" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A353" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B353" s="4">
         <v>4</v>
       </c>
       <c r="C353" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D353" s="12"/>
       <c r="E353" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F353" s="3"/>
       <c r="G353" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="354" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A354" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B354" s="4">
         <v>4</v>
       </c>
       <c r="C354" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D354" s="12"/>
       <c r="E354" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F354" s="3"/>
       <c r="G354" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="355" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -11030,53 +11089,53 @@
         <v>3</v>
       </c>
       <c r="C355" s="12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D355" s="12"/>
       <c r="E355" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F355" s="3"/>
       <c r="G355" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="356" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A356" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B356" s="4">
         <v>4</v>
       </c>
       <c r="C356" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D356" s="12"/>
       <c r="E356" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F356" s="3"/>
       <c r="G356" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="357" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A357" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B357" s="4">
         <v>4</v>
       </c>
       <c r="C357" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D357" s="12"/>
       <c r="E357" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F357" s="3"/>
       <c r="G357" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="358" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -11085,53 +11144,53 @@
         <v>3</v>
       </c>
       <c r="C358" s="12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D358" s="12"/>
       <c r="E358" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F358" s="3"/>
       <c r="G358" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A359" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B359" s="4">
         <v>4</v>
       </c>
       <c r="C359" s="12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D359" s="12"/>
       <c r="E359" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F359" s="3"/>
       <c r="G359" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="360" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A360" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B360" s="4">
         <v>4</v>
       </c>
       <c r="C360" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D360" s="12"/>
       <c r="E360" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F360" s="3"/>
       <c r="G360" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="361" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -11140,72 +11199,72 @@
         <v>3</v>
       </c>
       <c r="C361" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D361" s="12"/>
       <c r="E361" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F361" s="3"/>
       <c r="G361" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="362" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A362" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B362" s="4">
         <v>4</v>
       </c>
       <c r="C362" s="12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D362" s="12"/>
       <c r="E362" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F362" s="3"/>
       <c r="G362" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="363" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A363" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B363" s="4">
         <v>4</v>
       </c>
       <c r="C363" s="12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D363" s="12"/>
       <c r="E363" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F363" s="3"/>
       <c r="G363" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="364" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A364" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B364" s="4">
         <v>4</v>
       </c>
       <c r="C364" s="12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D364" s="12"/>
       <c r="E364" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F364" s="3"/>
       <c r="G364" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="365" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -11214,15 +11273,15 @@
         <v>2</v>
       </c>
       <c r="C365" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D365" s="9"/>
       <c r="E365" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F365" s="1"/>
       <c r="G365" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="366" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -11231,53 +11290,53 @@
         <v>3</v>
       </c>
       <c r="C366" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D366" s="12"/>
       <c r="E366" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F366" s="3"/>
       <c r="G366" s="3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="367" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A367" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B367" s="4">
         <v>4</v>
       </c>
       <c r="C367" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D367" s="12"/>
       <c r="E367" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F367" s="3"/>
       <c r="G367" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="368" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A368" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B368" s="4">
         <v>4</v>
       </c>
       <c r="C368" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D368" s="12"/>
       <c r="E368" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F368" s="3"/>
       <c r="G368" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="369" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -11286,15 +11345,15 @@
         <v>2</v>
       </c>
       <c r="C369" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D369" s="9"/>
       <c r="E369" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F369" s="1"/>
       <c r="G369" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="370" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -11303,129 +11362,129 @@
         <v>3</v>
       </c>
       <c r="C370" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D370" s="12"/>
       <c r="E370" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F370" s="3"/>
       <c r="G370" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="371" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A371" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B371" s="4">
         <v>4</v>
       </c>
       <c r="C371" s="12" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D371" s="12"/>
       <c r="E371" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F371" s="3"/>
       <c r="G371" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="372" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A372" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B372" s="4">
         <v>4</v>
       </c>
       <c r="C372" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D372" s="12"/>
       <c r="E372" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F372" s="3"/>
       <c r="G372" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="373" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A373" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B373" s="4">
         <v>4</v>
       </c>
       <c r="C373" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D373" s="12"/>
       <c r="E373" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F373" s="3"/>
       <c r="G373" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="374" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A374" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B374" s="4">
         <v>4</v>
       </c>
       <c r="C374" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D374" s="12"/>
       <c r="E374" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F374" s="3"/>
       <c r="G374" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="375" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A375" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B375" s="4">
         <v>4</v>
       </c>
       <c r="C375" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D375" s="12"/>
       <c r="E375" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F375" s="3"/>
       <c r="G375" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="376" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A376" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B376" s="4">
         <v>4</v>
       </c>
       <c r="C376" s="12" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D376" s="12"/>
       <c r="E376" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F376" s="3"/>
       <c r="G376" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
   </sheetData>

--- a/tools/aicpa/SOC2_2017_with_rev_2022.xlsx
+++ b/tools/aicpa/SOC2_2017_with_rev_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thida\Downloads\CISO ASSISTANT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/aicpa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B58311F-31BE-4BC7-8D5B-90942F4A67F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C2C304-3412-F846-8971-2220FF7A7628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D01D941C-8F4B-437A-8397-2B749EA54579}"/>
+    <workbookView xWindow="160" yWindow="500" windowWidth="34240" windowHeight="20580" xr2:uid="{D01D941C-8F4B-437A-8397-2B749EA54579}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="1179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="1193">
   <si>
     <t>System Operations</t>
   </si>
@@ -882,9 +882,6 @@
     <t>CC4.2.1</t>
   </si>
   <si>
-    <t>CC4.2.2.</t>
-  </si>
-  <si>
     <t>CC4.2.3</t>
   </si>
   <si>
@@ -3631,6 +3628,51 @@
     <t>TSP Sección 100
 2017 Trust Services Criteria for Security, Availability, Processing Integrity, Confidentiality, and Privacy (con puntos de atención revisados - 2022)
 TSC presenta criterios de control establecidos por el Comité Ejecutivo de Servicios de Aseguramiento (ASEC) del AICPA para su uso en compromisos de atestación o consultoría para evaluar e informar sobre los controles sobre la seguridad, disponibilidad, integridad de procesamiento, confidencialidad o privacidad de la información y los sistemas utilizados para proporcionar productos o servicios (a) en toda una entidad; (b) a nivel de subsidiaria, división o unidad operativa; (c) dentro de una función relevante para los objetivos operativos, de información o de cumplimiento de la entidad; y (d) para un tipo particular de información utilizada por la entidad. Link: https://www.aicpa-cima.com/resources/download/2017-trust-services-criteria-with-revised-points-of-focus-2022</t>
+  </si>
+  <si>
+    <t>library_publication_date</t>
+  </si>
+  <si>
+    <t>CC1</t>
+  </si>
+  <si>
+    <t>CC2</t>
+  </si>
+  <si>
+    <t>CC3</t>
+  </si>
+  <si>
+    <t>CC4</t>
+  </si>
+  <si>
+    <t>CC6</t>
+  </si>
+  <si>
+    <t>CC7</t>
+  </si>
+  <si>
+    <t>CC8</t>
+  </si>
+  <si>
+    <t>CC9</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>CC4.2.2</t>
+  </si>
+  <si>
+    <t>CC5</t>
   </si>
 </sst>
 </file>
@@ -3753,7 +3795,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3833,7 +3875,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3843,8 +3885,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3864,12 +3909,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -4165,31 +4206,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951F4425-FB26-465D-A91F-BEC42F32E716}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="110.85546875" style="29" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="29"/>
+    <col min="2" max="2" width="110.83203125" style="29" customWidth="1"/>
+    <col min="3" max="16384" width="11.5" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B2" s="32">
         <v>1</v>
@@ -4198,152 +4239,161 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>1142</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>1143</v>
       </c>
       <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C4" s="31"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="30" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>1145</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="C5" s="31"/>
+    </row>
+    <row r="6" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
         <v>1146</v>
       </c>
-      <c r="C5" s="31"/>
-    </row>
-    <row r="6" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="B6" s="34" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C6" s="31"/>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="33" t="s">
         <v>1147</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C6" s="31"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="B7" s="34" t="s">
         <v>1148</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>1149</v>
       </c>
       <c r="C7" s="31"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>1150</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>1151</v>
       </c>
       <c r="C8" s="31"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>1152</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="C9" s="31"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B10" s="36">
+        <v>45669</v>
+      </c>
+      <c r="C10" s="31"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="30" t="s">
         <v>1153</v>
       </c>
-      <c r="C9" s="31"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="B11" s="31" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C11" s="31"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="33" t="s">
         <v>1154</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B12" s="31" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C12" s="31"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C13" s="31"/>
+    </row>
+    <row r="14" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C14" s="31"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="30" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
         <v>1164</v>
       </c>
-      <c r="C10" s="31"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C11" s="31"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C12" s="31"/>
-    </row>
-    <row r="13" spans="1:3" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C13" s="31"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
+      <c r="B16" s="31" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="120" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="s">
         <v>1165</v>
       </c>
-      <c r="B15" s="31" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="B17" s="35" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
         <v>1166</v>
       </c>
-      <c r="B16" s="35" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>1162</v>
+      <c r="B18" s="34" t="s">
+        <v>1148</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="29" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>1146</v>
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>1145</v>
       </c>
     </row>
   </sheetData>
@@ -4356,2201 +4406,2209 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:G376"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B319" sqref="B319"/>
+      <selection pane="bottomLeft" activeCell="A314" sqref="A314"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="15" customWidth="1"/>
     <col min="4" max="4" width="30" style="15" customWidth="1"/>
-    <col min="5" max="5" width="88.140625" customWidth="1"/>
+    <col min="5" max="5" width="88.1640625" customWidth="1"/>
     <col min="6" max="6" width="56" customWidth="1"/>
-    <col min="7" max="7" width="95.28515625" customWidth="1"/>
+    <col min="7" max="7" width="95.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1059</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="10" t="s">
         <v>1060</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>1061</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>1055</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="22">
         <v>1</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="19" t="s">
+        <v>1179</v>
+      </c>
       <c r="D2" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="20" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6">
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B4" s="6">
         <v>3</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B5" s="6">
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B6" s="6">
         <v>3</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B7" s="6">
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B8" s="6">
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6">
         <v>2</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>1066</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>1069</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B10" s="6">
         <v>3</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B11" s="6">
         <v>3</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B12" s="6">
         <v>3</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B13" s="6">
         <v>3</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6">
         <v>2</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>1077</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B15" s="6">
         <v>3</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B16" s="6">
         <v>3</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B17" s="6">
         <v>3</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B18" s="6">
         <v>3</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B19" s="6">
         <v>3</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B20" s="6">
         <v>3</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="6">
         <v>2</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D21" s="11" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>1073</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>1076</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B22" s="6">
         <v>3</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B23" s="6">
         <v>3</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B24" s="6">
         <v>3</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B25" s="6">
         <v>3</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B26" s="6">
         <v>3</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B27" s="6">
         <v>3</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B28" s="6">
         <v>3</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="6">
         <v>2</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D29" s="11" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>1081</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B30" s="6">
         <v>3</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B31" s="6">
         <v>3</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B32" s="6">
         <v>3</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B33" s="6">
         <v>3</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B34" s="6">
         <v>3</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B35" s="6">
         <v>3</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="22"/>
       <c r="B36" s="22">
         <v>1</v>
       </c>
-      <c r="C36" s="23"/>
+      <c r="C36" s="23" t="s">
+        <v>1180</v>
+      </c>
       <c r="D36" s="23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="24" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4">
         <v>2</v>
       </c>
       <c r="C37" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B38" s="4">
+        <v>3</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>335</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B38" s="4">
-        <v>3</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>336</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B39" s="4">
         <v>3</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B40" s="4">
         <v>3</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B41" s="4">
         <v>3</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B42" s="4">
         <v>3</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B43" s="4">
         <v>3</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B44" s="4">
         <v>3</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B45" s="4">
         <v>3</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B46" s="4">
         <v>3</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4">
         <v>2</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D47" s="11" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B48" s="4">
         <v>3</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B49" s="4">
         <v>3</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B50" s="4">
         <v>3</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B51" s="4">
         <v>3</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B52" s="4">
         <v>3</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B53" s="4">
         <v>3</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B54" s="4">
         <v>3</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B55" s="4">
         <v>3</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B56" s="4">
         <v>3</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D56" s="12"/>
       <c r="E56" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B57" s="4">
         <v>3</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B58" s="4">
         <v>3</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D58" s="12"/>
       <c r="E58" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B59" s="4">
         <v>3</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B60" s="4">
         <v>3</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D60" s="12"/>
       <c r="E60" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4">
         <v>2</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D61" s="11" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B62" s="4">
         <v>3</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D62" s="12"/>
       <c r="E62" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B63" s="4">
         <v>3</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D63" s="12"/>
       <c r="E63" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B64" s="4">
         <v>3</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D64" s="12"/>
       <c r="E64" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B65" s="4">
         <v>3</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D65" s="12"/>
       <c r="E65" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B66" s="4">
         <v>3</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D66" s="12"/>
       <c r="E66" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B67" s="4">
         <v>3</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B68" s="4">
         <v>3</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D68" s="12"/>
       <c r="E68" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B69" s="4">
         <v>3</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D69" s="12"/>
       <c r="E69" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B70" s="4">
         <v>3</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D70" s="12"/>
       <c r="E70" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B71" s="4">
         <v>3</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D71" s="12"/>
       <c r="E71" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B72" s="4">
         <v>3</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D72" s="12"/>
       <c r="E72" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B73" s="4">
         <v>3</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D73" s="12"/>
       <c r="E73" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="26"/>
       <c r="B74" s="26">
         <v>1</v>
       </c>
-      <c r="C74" s="23"/>
+      <c r="C74" s="23" t="s">
+        <v>1181</v>
+      </c>
       <c r="D74" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="24" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="6">
         <v>2</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D75" s="11" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>1099</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B76" s="6">
         <v>3</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D76" s="12"/>
       <c r="E76" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B77" s="6">
         <v>3</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D77" s="12"/>
       <c r="E77" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B78" s="6">
         <v>3</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D78" s="12"/>
       <c r="E78" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B79" s="6">
         <v>3</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D79" s="12"/>
       <c r="E79" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B80" s="6">
         <v>3</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D80" s="12"/>
       <c r="E80" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B81" s="6">
         <v>3</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D81" s="12"/>
       <c r="E81" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B82" s="6">
         <v>3</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D82" s="12"/>
       <c r="E82" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B83" s="6">
         <v>3</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D83" s="12"/>
       <c r="E83" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B84" s="6">
         <v>3</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D84" s="12"/>
       <c r="E84" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B85" s="6">
         <v>3</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D85" s="12"/>
       <c r="E85" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B86" s="6">
         <v>3</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D86" s="12"/>
       <c r="E86" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B87" s="6">
         <v>3</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D87" s="12"/>
       <c r="E87" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B88" s="6">
         <v>3</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D88" s="12"/>
       <c r="E88" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B89" s="6">
         <v>3</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D89" s="12"/>
       <c r="E89" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B90" s="6">
         <v>3</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D90" s="12"/>
       <c r="E90" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B91" s="6">
         <v>3</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D91" s="12"/>
       <c r="E91" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
       <c r="B92" s="6">
         <v>2</v>
       </c>
       <c r="C92" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B93" s="6">
+        <v>3</v>
+      </c>
+      <c r="C93" s="12" t="s">
         <v>311</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>1101</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B93" s="6">
-        <v>3</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>312</v>
       </c>
       <c r="D93" s="12"/>
       <c r="E93" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B94" s="6">
         <v>3</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D94" s="12"/>
       <c r="E94" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B95" s="6">
         <v>3</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D95" s="12"/>
       <c r="E95" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B96" s="6">
         <v>3</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D96" s="12"/>
       <c r="E96" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B97" s="6">
         <v>3</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D97" s="12"/>
       <c r="E97" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B98" s="6">
         <v>3</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D98" s="12"/>
       <c r="E98" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B99" s="6">
         <v>3</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D99" s="12"/>
       <c r="E99" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B100" s="6">
         <v>3</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D100" s="12"/>
       <c r="E100" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="6">
         <v>2</v>
       </c>
       <c r="C101" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B102" s="6">
+        <v>3</v>
+      </c>
+      <c r="C102" s="12" t="s">
         <v>320</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>1103</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B102" s="6">
-        <v>3</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>321</v>
       </c>
       <c r="D102" s="12"/>
       <c r="E102" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B103" s="6">
         <v>3</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D103" s="12"/>
       <c r="E103" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B104" s="6">
         <v>3</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D104" s="12"/>
       <c r="E104" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B105" s="6">
         <v>3</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D105" s="12"/>
       <c r="E105" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B106" s="6">
         <v>3</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D106" s="12"/>
       <c r="E106" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="6"/>
       <c r="B107" s="6">
         <v>2</v>
       </c>
       <c r="C107" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A108" s="6" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B108" s="6">
+        <v>3</v>
+      </c>
+      <c r="C108" s="12" t="s">
         <v>327</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>1107</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B108" s="6">
-        <v>3</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>328</v>
       </c>
       <c r="D108" s="12"/>
       <c r="E108" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B109" s="6">
         <v>3</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D109" s="12"/>
       <c r="E109" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B110" s="6">
         <v>3</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D110" s="12"/>
       <c r="E110" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B111" s="6">
         <v>3</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D111" s="12"/>
       <c r="E111" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B112" s="6">
         <v>3</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D112" s="12"/>
       <c r="E112" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B113" s="6">
         <v>3</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D113" s="12"/>
       <c r="E113" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="22"/>
       <c r="B114" s="22">
         <v>1</v>
       </c>
-      <c r="C114" s="23"/>
+      <c r="C114" s="23" t="s">
+        <v>1182</v>
+      </c>
       <c r="D114" s="21" t="s">
         <v>263</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="24" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A115" s="6"/>
       <c r="B115" s="6">
         <v>2</v>
@@ -6559,21 +6617,21 @@
         <v>264</v>
       </c>
       <c r="D115" s="11" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="F115" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="G115" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="G115" s="1" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B116" s="6">
         <v>3</v>
@@ -6583,16 +6641,16 @@
       </c>
       <c r="D116" s="12"/>
       <c r="E116" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="3" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B117" s="6">
         <v>3</v>
@@ -6602,16 +6660,16 @@
       </c>
       <c r="D117" s="12"/>
       <c r="E117" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="3" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B118" s="6">
         <v>3</v>
@@ -6621,16 +6679,16 @@
       </c>
       <c r="D118" s="12"/>
       <c r="E118" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="3" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B119" s="6">
         <v>3</v>
@@ -6640,16 +6698,16 @@
       </c>
       <c r="D119" s="12"/>
       <c r="E119" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F119" s="3"/>
       <c r="G119" s="3" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B120" s="6">
         <v>3</v>
@@ -6659,16 +6717,16 @@
       </c>
       <c r="D120" s="12"/>
       <c r="E120" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F120" s="3"/>
       <c r="G120" s="3" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B121" s="6">
         <v>3</v>
@@ -6678,16 +6736,16 @@
       </c>
       <c r="D121" s="12"/>
       <c r="E121" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B122" s="6">
         <v>3</v>
@@ -6697,16 +6755,16 @@
       </c>
       <c r="D122" s="12"/>
       <c r="E122" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="3" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B123" s="6">
         <v>3</v>
@@ -6716,14 +6774,14 @@
       </c>
       <c r="D123" s="13"/>
       <c r="E123" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A124" s="6"/>
       <c r="B124" s="6">
         <v>2</v>
@@ -6732,21 +6790,21 @@
         <v>273</v>
       </c>
       <c r="D124" s="11" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="G124" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>1116</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B125" s="6">
         <v>3</v>
@@ -6756,67 +6814,69 @@
       </c>
       <c r="D125" s="12"/>
       <c r="E125" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B126" s="6">
         <v>3</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>275</v>
+        <v>1191</v>
       </c>
       <c r="D126" s="12"/>
       <c r="E126" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="3" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B127" s="6">
         <v>3</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D127" s="12"/>
       <c r="E127" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="2" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="22"/>
       <c r="B128" s="22">
         <v>1</v>
       </c>
-      <c r="C128" s="23"/>
+      <c r="C128" s="23" t="s">
+        <v>1192</v>
+      </c>
       <c r="D128" s="21" t="s">
         <v>239</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="24" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A129" s="6"/>
       <c r="B129" s="6">
         <v>2</v>
@@ -6825,21 +6885,21 @@
         <v>240</v>
       </c>
       <c r="D129" s="11" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F129" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F129" s="1" t="s">
+      <c r="G129" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="G129" s="1" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B130" s="6">
         <v>3</v>
@@ -6849,16 +6909,16 @@
       </c>
       <c r="D130" s="12"/>
       <c r="E130" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F130" s="3"/>
       <c r="G130" s="3" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B131" s="6">
         <v>3</v>
@@ -6868,16 +6928,16 @@
       </c>
       <c r="D131" s="12"/>
       <c r="E131" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F131" s="3"/>
       <c r="G131" s="3" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B132" s="6">
         <v>3</v>
@@ -6887,16 +6947,16 @@
       </c>
       <c r="D132" s="12"/>
       <c r="E132" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F132" s="3"/>
       <c r="G132" s="3" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B133" s="6">
         <v>3</v>
@@ -6906,16 +6966,16 @@
       </c>
       <c r="D133" s="12"/>
       <c r="E133" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="3" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B134" s="6">
         <v>3</v>
@@ -6925,16 +6985,16 @@
       </c>
       <c r="D134" s="12"/>
       <c r="E134" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B135" s="6">
         <v>3</v>
@@ -6944,14 +7004,14 @@
       </c>
       <c r="D135" s="12"/>
       <c r="E135" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F135" s="3"/>
       <c r="G135" s="3" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A136" s="6"/>
       <c r="B136" s="6">
         <v>2</v>
@@ -6960,21 +7020,21 @@
         <v>247</v>
       </c>
       <c r="D136" s="11" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="G136" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="F136" s="1" t="s">
-        <v>1124</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B137" s="6">
         <v>3</v>
@@ -6988,12 +7048,12 @@
       </c>
       <c r="F137" s="3"/>
       <c r="G137" s="3" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B138" s="6">
         <v>3</v>
@@ -7007,12 +7067,12 @@
       </c>
       <c r="F138" s="3"/>
       <c r="G138" s="3" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B139" s="6">
         <v>3</v>
@@ -7026,12 +7086,12 @@
       </c>
       <c r="F139" s="3"/>
       <c r="G139" s="3" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B140" s="6">
         <v>3</v>
@@ -7045,10 +7105,10 @@
       </c>
       <c r="F140" s="3"/>
       <c r="G140" s="3" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="6"/>
       <c r="B141" s="6">
         <v>2</v>
@@ -7057,19 +7117,19 @@
         <v>256</v>
       </c>
       <c r="D141" s="11" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E141" s="1" t="s">
         <v>1128</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>1129</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B142" s="6">
         <v>3</v>
@@ -7079,16 +7139,16 @@
       </c>
       <c r="D142" s="12"/>
       <c r="E142" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F142" s="3"/>
       <c r="G142" s="3" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B143" s="6">
         <v>3</v>
@@ -7098,16 +7158,16 @@
       </c>
       <c r="D143" s="12"/>
       <c r="E143" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F143" s="3"/>
       <c r="G143" s="3" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B144" s="6">
         <v>3</v>
@@ -7117,16 +7177,16 @@
       </c>
       <c r="D144" s="12"/>
       <c r="E144" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B145" s="6">
         <v>3</v>
@@ -7136,16 +7196,16 @@
       </c>
       <c r="D145" s="12"/>
       <c r="E145" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F145" s="3"/>
       <c r="G145" s="3" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B146" s="6">
         <v>3</v>
@@ -7155,16 +7215,16 @@
       </c>
       <c r="D146" s="12"/>
       <c r="E146" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F146" s="3"/>
       <c r="G146" s="3" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B147" s="6">
         <v>3</v>
@@ -7174,29 +7234,31 @@
       </c>
       <c r="D147" s="12"/>
       <c r="E147" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F147" s="3"/>
       <c r="G147" s="3" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="22"/>
       <c r="B148" s="22">
         <v>1</v>
       </c>
-      <c r="C148" s="23"/>
+      <c r="C148" s="23" t="s">
+        <v>1183</v>
+      </c>
       <c r="D148" s="25" t="s">
         <v>157</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="25" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="G148" s="3"/>
     </row>
-    <row r="149" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
       <c r="B149" s="4">
         <v>2</v>
@@ -7210,12 +7272,12 @@
       </c>
       <c r="F149" s="1"/>
       <c r="G149" s="1" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B150" s="4">
         <v>3</v>
@@ -7225,16 +7287,16 @@
       </c>
       <c r="D150" s="12"/>
       <c r="E150" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F150" s="3"/>
       <c r="G150" s="3" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B151" s="4">
         <v>3</v>
@@ -7244,16 +7306,16 @@
       </c>
       <c r="D151" s="12"/>
       <c r="E151" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F151" s="3"/>
       <c r="G151" s="3" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B152" s="4">
         <v>3</v>
@@ -7263,16 +7325,16 @@
       </c>
       <c r="D152" s="12"/>
       <c r="E152" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F152" s="3"/>
       <c r="G152" s="3" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B153" s="4">
         <v>3</v>
@@ -7282,16 +7344,16 @@
       </c>
       <c r="D153" s="12"/>
       <c r="E153" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F153" s="3"/>
       <c r="G153" s="3" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B154" s="4">
         <v>3</v>
@@ -7301,16 +7363,16 @@
       </c>
       <c r="D154" s="12"/>
       <c r="E154" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B155" s="4">
         <v>3</v>
@@ -7320,16 +7382,16 @@
       </c>
       <c r="D155" s="12"/>
       <c r="E155" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F155" s="3"/>
       <c r="G155" s="3" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B156" s="4">
         <v>3</v>
@@ -7339,16 +7401,16 @@
       </c>
       <c r="D156" s="12"/>
       <c r="E156" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F156" s="3"/>
       <c r="G156" s="3" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B157" s="4">
         <v>3</v>
@@ -7358,16 +7420,16 @@
       </c>
       <c r="D157" s="12"/>
       <c r="E157" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F157" s="3"/>
       <c r="G157" s="3" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B158" s="4">
         <v>3</v>
@@ -7377,16 +7439,16 @@
       </c>
       <c r="D158" s="12"/>
       <c r="E158" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F158" s="3"/>
       <c r="G158" s="3" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B159" s="4">
         <v>3</v>
@@ -7396,16 +7458,16 @@
       </c>
       <c r="D159" s="12"/>
       <c r="E159" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F159" s="3"/>
       <c r="G159" s="3" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B160" s="4">
         <v>3</v>
@@ -7415,16 +7477,16 @@
       </c>
       <c r="D160" s="12"/>
       <c r="E160" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F160" s="3"/>
       <c r="G160" s="3" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B161" s="4">
         <v>3</v>
@@ -7438,12 +7500,12 @@
       </c>
       <c r="F161" s="3"/>
       <c r="G161" s="3" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B162" s="4">
         <v>3</v>
@@ -7457,10 +7519,10 @@
       </c>
       <c r="F162" s="3"/>
       <c r="G162" s="3" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A163" s="4"/>
       <c r="B163" s="4">
         <v>2</v>
@@ -7474,12 +7536,12 @@
       </c>
       <c r="F163" s="1"/>
       <c r="G163" s="1" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B164" s="4">
         <v>3</v>
@@ -7493,12 +7555,12 @@
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B165" s="4">
         <v>3</v>
@@ -7512,12 +7574,12 @@
       </c>
       <c r="F165" s="3"/>
       <c r="G165" s="3" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B166" s="4">
         <v>3</v>
@@ -7531,10 +7593,10 @@
       </c>
       <c r="F166" s="3"/>
       <c r="G166" s="3" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A167" s="4"/>
       <c r="B167" s="4">
         <v>2</v>
@@ -7548,12 +7610,12 @@
       </c>
       <c r="F167" s="1"/>
       <c r="G167" s="1" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B168" s="4">
         <v>3</v>
@@ -7567,12 +7629,12 @@
       </c>
       <c r="F168" s="3"/>
       <c r="G168" s="3" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B169" s="4">
         <v>3</v>
@@ -7586,12 +7648,12 @@
       </c>
       <c r="F169" s="3"/>
       <c r="G169" s="3" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B170" s="4">
         <v>3</v>
@@ -7605,12 +7667,12 @@
       </c>
       <c r="F170" s="3"/>
       <c r="G170" s="3" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B171" s="4">
         <v>3</v>
@@ -7624,10 +7686,10 @@
       </c>
       <c r="F171" s="3"/>
       <c r="G171" s="3" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
       <c r="B172" s="4">
         <v>2</v>
@@ -7641,12 +7703,12 @@
       </c>
       <c r="F172" s="1"/>
       <c r="G172" s="1" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B173" s="4">
         <v>3</v>
@@ -7660,12 +7722,12 @@
       </c>
       <c r="F173" s="3"/>
       <c r="G173" s="3" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B174" s="4">
         <v>3</v>
@@ -7679,12 +7741,12 @@
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B175" s="4">
         <v>3</v>
@@ -7698,12 +7760,12 @@
       </c>
       <c r="F175" s="3"/>
       <c r="G175" s="3" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B176" s="4">
         <v>3</v>
@@ -7717,10 +7779,10 @@
       </c>
       <c r="F176" s="3"/>
       <c r="G176" s="3" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A177" s="4"/>
       <c r="B177" s="4">
         <v>2</v>
@@ -7734,12 +7796,12 @@
       </c>
       <c r="F177" s="1"/>
       <c r="G177" s="1" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B178" s="4">
         <v>3</v>
@@ -7753,10 +7815,10 @@
       </c>
       <c r="F178" s="3"/>
       <c r="G178" s="3" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A179" s="4"/>
       <c r="B179" s="4">
         <v>2</v>
@@ -7770,12 +7832,12 @@
       </c>
       <c r="F179" s="1"/>
       <c r="G179" s="1" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B180" s="4">
         <v>3</v>
@@ -7789,12 +7851,12 @@
       </c>
       <c r="F180" s="3"/>
       <c r="G180" s="3" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B181" s="4">
         <v>3</v>
@@ -7808,12 +7870,12 @@
       </c>
       <c r="F181" s="3"/>
       <c r="G181" s="3" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B182" s="4">
         <v>3</v>
@@ -7827,12 +7889,12 @@
       </c>
       <c r="F182" s="3"/>
       <c r="G182" s="3" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B183" s="4">
         <v>3</v>
@@ -7846,10 +7908,10 @@
       </c>
       <c r="F183" s="3"/>
       <c r="G183" s="3" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A184" s="4"/>
       <c r="B184" s="4">
         <v>2</v>
@@ -7863,12 +7925,12 @@
       </c>
       <c r="F184" s="1"/>
       <c r="G184" s="1" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B185" s="4">
         <v>3</v>
@@ -7882,12 +7944,12 @@
       </c>
       <c r="F185" s="3"/>
       <c r="G185" s="3" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B186" s="4">
         <v>3</v>
@@ -7901,12 +7963,12 @@
       </c>
       <c r="F186" s="3"/>
       <c r="G186" s="3" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B187" s="4">
         <v>3</v>
@@ -7920,12 +7982,12 @@
       </c>
       <c r="F187" s="3"/>
       <c r="G187" s="3" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B188" s="4">
         <v>3</v>
@@ -7939,10 +8001,10 @@
       </c>
       <c r="F188" s="3"/>
       <c r="G188" s="3" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A189" s="4"/>
       <c r="B189" s="4">
         <v>2</v>
@@ -7956,12 +8018,12 @@
       </c>
       <c r="F189" s="1"/>
       <c r="G189" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B190" s="4">
         <v>3</v>
@@ -7975,12 +8037,12 @@
       </c>
       <c r="F190" s="3"/>
       <c r="G190" s="3" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B191" s="4">
         <v>3</v>
@@ -7994,12 +8056,12 @@
       </c>
       <c r="F191" s="3"/>
       <c r="G191" s="3" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B192" s="4">
         <v>3</v>
@@ -8013,12 +8075,12 @@
       </c>
       <c r="F192" s="3"/>
       <c r="G192" s="3" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B193" s="4">
         <v>3</v>
@@ -8032,12 +8094,12 @@
       </c>
       <c r="F193" s="3"/>
       <c r="G193" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B194" s="4">
         <v>3</v>
@@ -8051,25 +8113,27 @@
       </c>
       <c r="F194" s="3"/>
       <c r="G194" s="3" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="26"/>
       <c r="B195" s="26">
         <v>1</v>
       </c>
-      <c r="C195" s="23"/>
+      <c r="C195" s="23" t="s">
+        <v>1184</v>
+      </c>
       <c r="D195" s="21" t="s">
         <v>0</v>
       </c>
       <c r="E195" s="3"/>
       <c r="F195" s="24" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="G195" s="3"/>
     </row>
-    <row r="196" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A196" s="6"/>
       <c r="B196" s="6">
         <v>2</v>
@@ -8083,12 +8147,12 @@
       </c>
       <c r="F196" s="1"/>
       <c r="G196" s="1" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B197" s="6">
         <v>3</v>
@@ -8102,12 +8166,12 @@
       </c>
       <c r="F197" s="7"/>
       <c r="G197" s="3" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B198" s="6">
         <v>3</v>
@@ -8121,12 +8185,12 @@
       </c>
       <c r="F198" s="7"/>
       <c r="G198" s="3" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B199" s="6">
         <v>3</v>
@@ -8140,12 +8204,12 @@
       </c>
       <c r="F199" s="7"/>
       <c r="G199" s="3" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B200" s="6">
         <v>3</v>
@@ -8159,12 +8223,12 @@
       </c>
       <c r="F200" s="7"/>
       <c r="G200" s="3" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B201" s="6">
         <v>3</v>
@@ -8178,10 +8242,10 @@
       </c>
       <c r="F201" s="7"/>
       <c r="G201" s="3" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A202" s="6"/>
       <c r="B202" s="6">
         <v>2</v>
@@ -8195,12 +8259,12 @@
       </c>
       <c r="F202" s="1"/>
       <c r="G202" s="1" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B203" s="6">
         <v>3</v>
@@ -8214,12 +8278,12 @@
       </c>
       <c r="F203" s="3"/>
       <c r="G203" s="3" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B204" s="6">
         <v>3</v>
@@ -8233,12 +8297,12 @@
       </c>
       <c r="F204" s="3"/>
       <c r="G204" s="3" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B205" s="6">
         <v>3</v>
@@ -8252,12 +8316,12 @@
       </c>
       <c r="F205" s="3"/>
       <c r="G205" s="3" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B206" s="6">
         <v>3</v>
@@ -8271,10 +8335,10 @@
       </c>
       <c r="F206" s="3"/>
       <c r="G206" s="3" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A207" s="6"/>
       <c r="B207" s="6">
         <v>2</v>
@@ -8288,12 +8352,12 @@
       </c>
       <c r="F207" s="1"/>
       <c r="G207" s="1" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B208" s="6">
         <v>3</v>
@@ -8307,12 +8371,12 @@
       </c>
       <c r="F208" s="3"/>
       <c r="G208" s="3" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B209" s="6">
         <v>3</v>
@@ -8326,12 +8390,12 @@
       </c>
       <c r="F209" s="3"/>
       <c r="G209" s="3" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B210" s="6">
         <v>3</v>
@@ -8345,12 +8409,12 @@
       </c>
       <c r="F210" s="3"/>
       <c r="G210" s="3" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B211" s="6">
         <v>3</v>
@@ -8364,12 +8428,12 @@
       </c>
       <c r="F211" s="3"/>
       <c r="G211" s="3" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B212" s="6">
         <v>3</v>
@@ -8383,12 +8447,12 @@
       </c>
       <c r="F212" s="3"/>
       <c r="G212" s="3" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B213" s="6">
         <v>3</v>
@@ -8402,12 +8466,12 @@
       </c>
       <c r="F213" s="3"/>
       <c r="G213" s="3" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B214" s="6">
         <v>3</v>
@@ -8421,10 +8485,10 @@
       </c>
       <c r="F214" s="3"/>
       <c r="G214" s="3" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A215" s="6"/>
       <c r="B215" s="6">
         <v>2</v>
@@ -8438,12 +8502,12 @@
       </c>
       <c r="F215" s="1"/>
       <c r="G215" s="1" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B216" s="6">
         <v>3</v>
@@ -8457,12 +8521,12 @@
       </c>
       <c r="F216" s="3"/>
       <c r="G216" s="3" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B217" s="6">
         <v>3</v>
@@ -8476,12 +8540,12 @@
       </c>
       <c r="F217" s="3"/>
       <c r="G217" s="3" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B218" s="6">
         <v>3</v>
@@ -8495,12 +8559,12 @@
       </c>
       <c r="F218" s="3"/>
       <c r="G218" s="3" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B219" s="6">
         <v>3</v>
@@ -8514,12 +8578,12 @@
       </c>
       <c r="F219" s="3"/>
       <c r="G219" s="3" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B220" s="6">
         <v>3</v>
@@ -8533,12 +8597,12 @@
       </c>
       <c r="F220" s="3"/>
       <c r="G220" s="3" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B221" s="6">
         <v>3</v>
@@ -8552,12 +8616,12 @@
       </c>
       <c r="F221" s="3"/>
       <c r="G221" s="3" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B222" s="6">
         <v>3</v>
@@ -8571,12 +8635,12 @@
       </c>
       <c r="F222" s="3"/>
       <c r="G222" s="3" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B223" s="6">
         <v>3</v>
@@ -8590,12 +8654,12 @@
       </c>
       <c r="F223" s="3"/>
       <c r="G223" s="3" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B224" s="6">
         <v>3</v>
@@ -8609,12 +8673,12 @@
       </c>
       <c r="F224" s="3"/>
       <c r="G224" s="3" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B225" s="6">
         <v>3</v>
@@ -8628,12 +8692,12 @@
       </c>
       <c r="F225" s="3"/>
       <c r="G225" s="3" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B226" s="6">
         <v>3</v>
@@ -8647,12 +8711,12 @@
       </c>
       <c r="F226" s="3"/>
       <c r="G226" s="3" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B227" s="6">
         <v>3</v>
@@ -8666,12 +8730,12 @@
       </c>
       <c r="F227" s="3"/>
       <c r="G227" s="3" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B228" s="6">
         <v>3</v>
@@ -8685,12 +8749,12 @@
       </c>
       <c r="F228" s="3"/>
       <c r="G228" s="3" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B229" s="6">
         <v>3</v>
@@ -8704,10 +8768,10 @@
       </c>
       <c r="F229" s="3"/>
       <c r="G229" s="3" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="6"/>
       <c r="B230" s="6">
         <v>2</v>
@@ -8721,12 +8785,12 @@
       </c>
       <c r="F230" s="8"/>
       <c r="G230" s="8" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B231" s="6">
         <v>3</v>
@@ -8740,12 +8804,12 @@
       </c>
       <c r="F231" s="3"/>
       <c r="G231" s="3" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B232" s="6">
         <v>3</v>
@@ -8759,12 +8823,12 @@
       </c>
       <c r="F232" s="3"/>
       <c r="G232" s="3" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B233" s="6">
         <v>3</v>
@@ -8778,12 +8842,12 @@
       </c>
       <c r="F233" s="3"/>
       <c r="G233" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B234" s="6">
         <v>3</v>
@@ -8797,12 +8861,12 @@
       </c>
       <c r="F234" s="3"/>
       <c r="G234" s="3" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B235" s="6">
         <v>3</v>
@@ -8816,12 +8880,12 @@
       </c>
       <c r="F235" s="3"/>
       <c r="G235" s="3" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B236" s="6">
         <v>3</v>
@@ -8835,25 +8899,27 @@
       </c>
       <c r="F236" s="3"/>
       <c r="G236" s="3" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="22"/>
       <c r="B237" s="22">
         <v>1</v>
       </c>
-      <c r="C237" s="28"/>
+      <c r="C237" s="28" t="s">
+        <v>1185</v>
+      </c>
       <c r="D237" s="21" t="s">
         <v>83</v>
       </c>
       <c r="E237" s="3"/>
       <c r="F237" s="24" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G237" s="3"/>
     </row>
-    <row r="238" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A238" s="6"/>
       <c r="B238" s="6">
         <v>2</v>
@@ -8867,12 +8933,12 @@
       </c>
       <c r="F238" s="1"/>
       <c r="G238" s="1" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A239" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B239" s="6">
         <v>3</v>
@@ -8886,12 +8952,12 @@
       </c>
       <c r="F239" s="3"/>
       <c r="G239" s="3" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B240" s="6">
         <v>3</v>
@@ -8905,12 +8971,12 @@
       </c>
       <c r="F240" s="3"/>
       <c r="G240" s="3" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B241" s="6">
         <v>3</v>
@@ -8924,12 +8990,12 @@
       </c>
       <c r="F241" s="3"/>
       <c r="G241" s="3" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A242" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B242" s="6">
         <v>3</v>
@@ -8943,12 +9009,12 @@
       </c>
       <c r="F242" s="3"/>
       <c r="G242" s="3" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B243" s="6">
         <v>3</v>
@@ -8962,12 +9028,12 @@
       </c>
       <c r="F243" s="3"/>
       <c r="G243" s="3" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B244" s="6">
         <v>3</v>
@@ -8981,12 +9047,12 @@
       </c>
       <c r="F244" s="3"/>
       <c r="G244" s="3" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B245" s="6">
         <v>3</v>
@@ -9000,12 +9066,12 @@
       </c>
       <c r="F245" s="3"/>
       <c r="G245" s="3" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B246" s="6">
         <v>3</v>
@@ -9019,12 +9085,12 @@
       </c>
       <c r="F246" s="3"/>
       <c r="G246" s="3" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A247" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B247" s="6">
         <v>3</v>
@@ -9038,12 +9104,12 @@
       </c>
       <c r="F247" s="3"/>
       <c r="G247" s="3" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B248" s="6">
         <v>3</v>
@@ -9057,12 +9123,12 @@
       </c>
       <c r="F248" s="3"/>
       <c r="G248" s="3" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B249" s="6">
         <v>3</v>
@@ -9076,12 +9142,12 @@
       </c>
       <c r="F249" s="3"/>
       <c r="G249" s="3" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B250" s="6">
         <v>3</v>
@@ -9095,12 +9161,12 @@
       </c>
       <c r="F250" s="3"/>
       <c r="G250" s="3" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B251" s="6">
         <v>3</v>
@@ -9114,12 +9180,12 @@
       </c>
       <c r="F251" s="3"/>
       <c r="G251" s="3" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B252" s="6">
         <v>3</v>
@@ -9133,12 +9199,12 @@
       </c>
       <c r="F252" s="3"/>
       <c r="G252" s="3" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A253" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B253" s="6">
         <v>3</v>
@@ -9152,12 +9218,12 @@
       </c>
       <c r="F253" s="3"/>
       <c r="G253" s="3" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B254" s="6">
         <v>3</v>
@@ -9171,12 +9237,12 @@
       </c>
       <c r="F254" s="3"/>
       <c r="G254" s="3" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B255" s="6">
         <v>3</v>
@@ -9190,12 +9256,12 @@
       </c>
       <c r="F255" s="3"/>
       <c r="G255" s="3" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B256" s="6">
         <v>3</v>
@@ -9209,25 +9275,27 @@
       </c>
       <c r="F256" s="3"/>
       <c r="G256" s="3" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="22"/>
       <c r="B257" s="22">
         <v>1</v>
       </c>
-      <c r="C257" s="28"/>
+      <c r="C257" s="28" t="s">
+        <v>1186</v>
+      </c>
       <c r="D257" s="21" t="s">
         <v>122</v>
       </c>
       <c r="E257" s="3"/>
       <c r="F257" s="24" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="G257" s="3"/>
     </row>
-    <row r="258" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A258" s="6"/>
       <c r="B258" s="6">
         <v>2</v>
@@ -9241,12 +9309,12 @@
       </c>
       <c r="F258" s="1"/>
       <c r="G258" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B259" s="6">
         <v>3</v>
@@ -9260,12 +9328,12 @@
       </c>
       <c r="F259" s="3"/>
       <c r="G259" s="3" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B260" s="6">
         <v>3</v>
@@ -9279,10 +9347,10 @@
       </c>
       <c r="F260" s="3"/>
       <c r="G260" s="3" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="6"/>
       <c r="B261" s="6">
         <v>2</v>
@@ -9296,12 +9364,12 @@
       </c>
       <c r="F261" s="1"/>
       <c r="G261" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B262" s="6">
         <v>3</v>
@@ -9315,12 +9383,12 @@
       </c>
       <c r="F262" s="3"/>
       <c r="G262" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B263" s="6">
         <v>3</v>
@@ -9334,12 +9402,12 @@
       </c>
       <c r="F263" s="3"/>
       <c r="G263" s="3" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B264" s="6">
         <v>3</v>
@@ -9353,12 +9421,12 @@
       </c>
       <c r="F264" s="3"/>
       <c r="G264" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B265" s="6">
         <v>3</v>
@@ -9372,12 +9440,12 @@
       </c>
       <c r="F265" s="3"/>
       <c r="G265" s="3" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B266" s="6">
         <v>3</v>
@@ -9391,12 +9459,12 @@
       </c>
       <c r="F266" s="3"/>
       <c r="G266" s="3" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B267" s="6">
         <v>3</v>
@@ -9410,12 +9478,12 @@
       </c>
       <c r="F267" s="3"/>
       <c r="G267" s="3" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B268" s="6">
         <v>3</v>
@@ -9429,12 +9497,12 @@
       </c>
       <c r="F268" s="3"/>
       <c r="G268" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B269" s="6">
         <v>3</v>
@@ -9448,12 +9516,12 @@
       </c>
       <c r="F269" s="3"/>
       <c r="G269" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A270" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B270" s="6">
         <v>3</v>
@@ -9467,12 +9535,12 @@
       </c>
       <c r="F270" s="3"/>
       <c r="G270" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A271" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B271" s="6">
         <v>3</v>
@@ -9486,12 +9554,12 @@
       </c>
       <c r="F271" s="3"/>
       <c r="G271" s="3" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B272" s="6">
         <v>3</v>
@@ -9505,12 +9573,12 @@
       </c>
       <c r="F272" s="3"/>
       <c r="G272" s="3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B273" s="6">
         <v>3</v>
@@ -9524,12 +9592,12 @@
       </c>
       <c r="F273" s="3"/>
       <c r="G273" s="3" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A274" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B274" s="6">
         <v>3</v>
@@ -9543,1878 +9611,1880 @@
       </c>
       <c r="F274" s="3"/>
       <c r="G274" s="3" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="22"/>
       <c r="B275" s="22">
         <v>1</v>
       </c>
-      <c r="C275" s="28"/>
+      <c r="C275" s="28" t="s">
+        <v>1187</v>
+      </c>
       <c r="D275" s="25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E275" s="3"/>
       <c r="F275" s="24" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
       <c r="B276" s="4">
         <v>2</v>
       </c>
       <c r="C276" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D276" s="9"/>
       <c r="E276" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F276" s="1"/>
       <c r="G276" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B277" s="4">
         <v>3</v>
       </c>
       <c r="C277" s="13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D277" s="13"/>
       <c r="E277" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F277" s="3"/>
       <c r="G277" s="3" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B278" s="4">
         <v>3</v>
       </c>
       <c r="C278" s="13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D278" s="13"/>
       <c r="E278" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F278" s="3"/>
       <c r="G278" s="3" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B279" s="4">
         <v>3</v>
       </c>
       <c r="C279" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D279" s="13"/>
       <c r="E279" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F279" s="3"/>
       <c r="G279" s="3" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
       <c r="B280" s="4">
         <v>2</v>
       </c>
       <c r="C280" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D280" s="9"/>
       <c r="E280" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F280" s="1"/>
       <c r="G280" s="1" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B281" s="4">
         <v>3</v>
       </c>
       <c r="C281" s="13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D281" s="13"/>
       <c r="E281" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F281" s="3"/>
       <c r="G281" s="3" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B282" s="4">
         <v>3</v>
       </c>
       <c r="C282" s="13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D282" s="13"/>
       <c r="E282" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F282" s="3"/>
       <c r="G282" s="3" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B283" s="4">
         <v>3</v>
       </c>
       <c r="C283" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D283" s="13"/>
       <c r="E283" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F283" s="3"/>
       <c r="G283" s="3" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B284" s="4">
         <v>3</v>
       </c>
       <c r="C284" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D284" s="13"/>
       <c r="E284" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F284" s="3"/>
       <c r="G284" s="3" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B285" s="4">
         <v>3</v>
       </c>
       <c r="C285" s="13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D285" s="13"/>
       <c r="E285" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F285" s="3"/>
       <c r="G285" s="3" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B286" s="4">
         <v>3</v>
       </c>
       <c r="C286" s="13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D286" s="13"/>
       <c r="E286" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F286" s="3"/>
       <c r="G286" s="3" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B287" s="4">
         <v>3</v>
       </c>
       <c r="C287" s="13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D287" s="13"/>
       <c r="E287" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F287" s="3"/>
       <c r="G287" s="3" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B288" s="4">
         <v>3</v>
       </c>
       <c r="C288" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D288" s="13"/>
       <c r="E288" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F288" s="3"/>
       <c r="G288" s="3" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B289" s="4">
         <v>3</v>
       </c>
       <c r="C289" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D289" s="13"/>
       <c r="E289" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F289" s="3"/>
       <c r="G289" s="3" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B290" s="4">
         <v>3</v>
       </c>
       <c r="C290" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D290" s="13"/>
       <c r="E290" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F290" s="3"/>
       <c r="G290" s="3" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B291" s="4">
         <v>3</v>
       </c>
       <c r="C291" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D291" s="13"/>
       <c r="E291" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F291" s="3"/>
       <c r="G291" s="3" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
       <c r="B292" s="4">
         <v>2</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D292" s="9"/>
       <c r="E292" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F292" s="1"/>
       <c r="G292" s="1" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B293" s="4">
         <v>3</v>
       </c>
       <c r="C293" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D293" s="13"/>
       <c r="E293" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F293" s="3"/>
       <c r="G293" s="3" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A294" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B294" s="4">
         <v>3</v>
       </c>
       <c r="C294" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D294" s="13"/>
       <c r="E294" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F294" s="3"/>
       <c r="G294" s="3" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="26"/>
       <c r="B295" s="26">
         <v>1</v>
       </c>
-      <c r="C295" s="28"/>
+      <c r="C295" s="28" t="s">
+        <v>1188</v>
+      </c>
       <c r="D295" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E295" s="3"/>
       <c r="F295" s="24" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="G295" s="3"/>
     </row>
-    <row r="296" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="B296" s="4">
         <v>2</v>
       </c>
       <c r="C296" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D296" s="9"/>
       <c r="E296" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F296" s="1"/>
       <c r="G296" s="1" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B297" s="4">
         <v>3</v>
       </c>
       <c r="C297" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D297" s="13"/>
       <c r="E297" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F297" s="3"/>
       <c r="G297" s="3" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A298" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B298" s="4">
         <v>3</v>
       </c>
       <c r="C298" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D298" s="13"/>
       <c r="E298" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F298" s="3"/>
       <c r="G298" s="3" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A299" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B299" s="4">
         <v>3</v>
       </c>
       <c r="C299" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D299" s="13"/>
       <c r="E299" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F299" s="3"/>
       <c r="G299" s="3" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
       <c r="B300" s="4">
         <v>2</v>
       </c>
       <c r="C300" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D300" s="9"/>
       <c r="E300" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F300" s="1"/>
       <c r="G300" s="1" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B301" s="4">
         <v>3</v>
       </c>
       <c r="C301" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D301" s="13"/>
       <c r="E301" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F301" s="3"/>
       <c r="G301" s="3" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A302" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B302" s="4">
         <v>3</v>
       </c>
       <c r="C302" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D302" s="13"/>
       <c r="E302" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F302" s="3"/>
       <c r="G302" s="3" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A303" s="26"/>
       <c r="B303" s="26">
         <v>1</v>
       </c>
-      <c r="C303" s="28"/>
+      <c r="C303" s="28" t="s">
+        <v>1189</v>
+      </c>
       <c r="D303" s="25" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E303" s="3"/>
       <c r="F303" s="24" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="G303" s="3"/>
     </row>
-    <row r="304" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B304" s="4">
         <v>2</v>
       </c>
       <c r="C304" s="13" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D304" s="13"/>
       <c r="E304" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F304" s="3"/>
       <c r="G304" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A305" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B305" s="4">
         <v>2</v>
       </c>
       <c r="C305" s="13" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D305" s="13"/>
       <c r="E305" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F305" s="3"/>
       <c r="G305" s="3" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A306" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B306" s="4">
         <v>2</v>
       </c>
       <c r="C306" s="13" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D306" s="13"/>
       <c r="E306" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F306" s="3"/>
       <c r="G306" s="3" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B307" s="4">
         <v>2</v>
       </c>
       <c r="C307" s="13" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D307" s="13"/>
       <c r="E307" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F307" s="3"/>
       <c r="G307" s="3" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A308" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B308" s="4">
         <v>2</v>
       </c>
       <c r="C308" s="13" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D308" s="13"/>
       <c r="E308" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F308" s="3"/>
       <c r="G308" s="3" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="26"/>
       <c r="B309" s="26">
         <v>1</v>
       </c>
-      <c r="C309" s="28"/>
+      <c r="C309" s="28" t="s">
+        <v>1190</v>
+      </c>
       <c r="D309" s="25" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E309" s="3"/>
       <c r="F309" s="24" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="G309" s="3"/>
     </row>
-    <row r="310" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="4" t="s">
-        <v>1139</v>
-      </c>
+    <row r="310" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A310" s="4"/>
       <c r="B310" s="4">
         <v>2</v>
       </c>
       <c r="C310" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D310" s="9"/>
       <c r="E310" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F310" s="1"/>
       <c r="G310" s="1" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A311" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B311" s="4">
         <v>3</v>
       </c>
       <c r="C311" s="13" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D311" s="13"/>
       <c r="E311" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F311" s="3"/>
       <c r="G311" s="3" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A312" s="4" t="s">
-        <v>1139</v>
-      </c>
+        <v>882</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A312" s="4"/>
       <c r="B312" s="4">
         <v>2</v>
       </c>
       <c r="C312" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D312" s="9"/>
       <c r="E312" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F312" s="1"/>
       <c r="G312" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A313" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B313" s="4">
         <v>3</v>
       </c>
       <c r="C313" s="12" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D313" s="12"/>
       <c r="E313" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F313" s="3"/>
       <c r="G313" s="3" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A314" s="4" t="s">
-        <v>1139</v>
-      </c>
+        <v>884</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A314" s="4"/>
       <c r="B314" s="4">
         <v>2</v>
       </c>
       <c r="C314" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D314" s="9"/>
       <c r="E314" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F314" s="1"/>
       <c r="G314" s="1" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B315" s="4">
         <v>3</v>
       </c>
       <c r="C315" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D315" s="12"/>
       <c r="E315" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F315" s="2"/>
       <c r="G315" s="3" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
       <c r="B316" s="4">
         <v>3</v>
       </c>
       <c r="C316" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D316" s="12"/>
       <c r="E316" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F316" s="2"/>
       <c r="G316" s="3" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A317" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B317" s="4">
         <v>4</v>
       </c>
       <c r="C317" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D317" s="12"/>
       <c r="E317" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F317" s="3"/>
       <c r="G317" s="3" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A318" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B318" s="4">
         <v>4</v>
       </c>
       <c r="C318" s="12" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D318" s="12"/>
       <c r="E318" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F318" s="3"/>
       <c r="G318" s="3" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="B319" s="4">
         <v>2</v>
       </c>
       <c r="C319" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D319" s="9"/>
       <c r="E319" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F319" s="1"/>
       <c r="G319" s="1" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
       <c r="B320" s="4">
         <v>3</v>
       </c>
       <c r="C320" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D320" s="12"/>
       <c r="E320" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F320" s="3"/>
       <c r="G320" s="3" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A321" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B321" s="4">
         <v>4</v>
       </c>
       <c r="C321" s="12" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D321" s="12"/>
       <c r="E321" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F321" s="3"/>
       <c r="G321" s="3" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="B322" s="4">
         <v>3</v>
       </c>
       <c r="C322" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D322" s="12"/>
       <c r="E322" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F322" s="3"/>
       <c r="G322" s="3" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A323" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B323" s="4">
         <v>4</v>
       </c>
       <c r="C323" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D323" s="12"/>
       <c r="E323" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F323" s="3"/>
       <c r="G323" s="3" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A324" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B324" s="4">
         <v>4</v>
       </c>
       <c r="C324" s="12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D324" s="12"/>
       <c r="E324" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F324" s="3"/>
       <c r="G324" s="3" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
       <c r="B325" s="4">
         <v>3</v>
       </c>
       <c r="C325" s="12" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D325" s="12"/>
       <c r="E325" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F325" s="3"/>
       <c r="G325" s="3" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A326" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B326" s="4">
         <v>4</v>
       </c>
       <c r="C326" s="12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D326" s="12"/>
       <c r="E326" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F326" s="3"/>
       <c r="G326" s="3" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A327" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B327" s="4">
         <v>4</v>
       </c>
       <c r="C327" s="12" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D327" s="12"/>
       <c r="E327" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F327" s="3"/>
       <c r="G327" s="3" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A328" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B328" s="4">
         <v>4</v>
       </c>
       <c r="C328" s="12" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D328" s="12"/>
       <c r="E328" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F328" s="3"/>
       <c r="G328" s="3" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="B329" s="4">
         <v>2</v>
       </c>
       <c r="C329" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D329" s="9"/>
       <c r="E329" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F329" s="1"/>
       <c r="G329" s="1" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="B330" s="4">
         <v>3</v>
       </c>
       <c r="C330" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D330" s="12"/>
       <c r="E330" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F330" s="3"/>
       <c r="G330" s="3" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A331" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B331" s="4">
         <v>4</v>
       </c>
       <c r="C331" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D331" s="12"/>
       <c r="E331" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F331" s="3"/>
       <c r="G331" s="3" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A332" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B332" s="4">
         <v>4</v>
       </c>
       <c r="C332" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D332" s="12"/>
       <c r="E332" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F332" s="3"/>
       <c r="G332" s="3" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A333" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B333" s="4">
         <v>4</v>
       </c>
       <c r="C333" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D333" s="12"/>
       <c r="E333" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F333" s="3"/>
       <c r="G333" s="3" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A334" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B334" s="4">
         <v>4</v>
       </c>
       <c r="C334" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D334" s="12"/>
       <c r="E334" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F334" s="3"/>
       <c r="G334" s="3" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A335" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B335" s="4">
         <v>4</v>
       </c>
       <c r="C335" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D335" s="12"/>
       <c r="E335" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F335" s="3"/>
       <c r="G335" s="3" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
       <c r="B336" s="4">
         <v>3</v>
       </c>
       <c r="C336" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D336" s="12"/>
       <c r="E336" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F336" s="3"/>
       <c r="G336" s="3" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A337" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B337" s="4">
         <v>4</v>
       </c>
       <c r="C337" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D337" s="12"/>
       <c r="E337" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F337" s="3"/>
       <c r="G337" s="3" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A338" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B338" s="4">
         <v>4</v>
       </c>
       <c r="C338" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D338" s="12"/>
       <c r="E338" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F338" s="3"/>
       <c r="G338" s="3" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A339" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B339" s="4">
         <v>4</v>
       </c>
       <c r="C339" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D339" s="12"/>
       <c r="E339" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F339" s="3"/>
       <c r="G339" s="3" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A340" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B340" s="4">
         <v>4</v>
       </c>
       <c r="C340" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D340" s="12"/>
       <c r="E340" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F340" s="3"/>
       <c r="G340" s="3" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="4">
         <v>2</v>
       </c>
       <c r="C341" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D341" s="9"/>
       <c r="E341" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F341" s="1"/>
       <c r="G341" s="1" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="4">
         <v>3</v>
       </c>
       <c r="C342" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D342" s="12"/>
       <c r="E342" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F342" s="3"/>
       <c r="G342" s="3" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A343" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B343" s="4">
         <v>4</v>
       </c>
       <c r="C343" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D343" s="12"/>
       <c r="E343" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F343" s="3"/>
       <c r="G343" s="3" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A344" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B344" s="4">
         <v>4</v>
       </c>
       <c r="C344" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D344" s="12"/>
       <c r="E344" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F344" s="3"/>
       <c r="G344" s="3" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A345" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B345" s="4">
         <v>4</v>
       </c>
       <c r="C345" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D345" s="12"/>
       <c r="E345" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F345" s="3"/>
       <c r="G345" s="3" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A346" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B346" s="4">
         <v>4</v>
       </c>
       <c r="C346" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D346" s="12"/>
       <c r="E346" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F346" s="3"/>
       <c r="G346" s="3" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A347" s="4"/>
       <c r="B347" s="4">
         <v>3</v>
       </c>
       <c r="C347" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D347" s="12"/>
       <c r="E347" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F347" s="3"/>
       <c r="G347" s="3" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A348" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B348" s="4">
         <v>4</v>
       </c>
       <c r="C348" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D348" s="12"/>
       <c r="E348" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F348" s="3"/>
       <c r="G348" s="3" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A349" s="4"/>
       <c r="B349" s="4">
         <v>3</v>
       </c>
       <c r="C349" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D349" s="12"/>
       <c r="E349" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F349" s="3"/>
       <c r="G349" s="3" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A350" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B350" s="4">
         <v>4</v>
       </c>
       <c r="C350" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D350" s="12"/>
       <c r="E350" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F350" s="3"/>
       <c r="G350" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
       <c r="B351" s="4">
         <v>3</v>
       </c>
       <c r="C351" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D351" s="12"/>
       <c r="E351" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F351" s="3"/>
       <c r="G351" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A352" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B352" s="4">
         <v>4</v>
       </c>
       <c r="C352" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D352" s="12"/>
       <c r="E352" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F352" s="3"/>
       <c r="G352" s="3" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A353" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B353" s="4">
         <v>4</v>
       </c>
       <c r="C353" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D353" s="12"/>
       <c r="E353" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F353" s="3"/>
       <c r="G353" s="3" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A354" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B354" s="4">
         <v>4</v>
       </c>
       <c r="C354" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D354" s="12"/>
       <c r="E354" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F354" s="3"/>
       <c r="G354" s="3" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
       <c r="B355" s="4">
         <v>3</v>
       </c>
       <c r="C355" s="12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D355" s="12"/>
       <c r="E355" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F355" s="3"/>
       <c r="G355" s="3" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A356" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B356" s="4">
         <v>4</v>
       </c>
       <c r="C356" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D356" s="12"/>
       <c r="E356" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F356" s="3"/>
       <c r="G356" s="3" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A357" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B357" s="4">
         <v>4</v>
       </c>
       <c r="C357" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D357" s="12"/>
       <c r="E357" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F357" s="3"/>
       <c r="G357" s="3" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
       <c r="B358" s="4">
         <v>3</v>
       </c>
       <c r="C358" s="12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D358" s="12"/>
       <c r="E358" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F358" s="3"/>
       <c r="G358" s="3" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A359" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B359" s="4">
         <v>4</v>
       </c>
       <c r="C359" s="12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D359" s="12"/>
       <c r="E359" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F359" s="3"/>
       <c r="G359" s="3" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A360" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B360" s="4">
         <v>4</v>
       </c>
       <c r="C360" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D360" s="12"/>
       <c r="E360" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F360" s="3"/>
       <c r="G360" s="3" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="B361" s="4">
         <v>3</v>
       </c>
       <c r="C361" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D361" s="12"/>
       <c r="E361" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F361" s="3"/>
       <c r="G361" s="3" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A362" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B362" s="4">
         <v>4</v>
       </c>
       <c r="C362" s="12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D362" s="12"/>
       <c r="E362" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F362" s="3"/>
       <c r="G362" s="3" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A363" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B363" s="4">
         <v>4</v>
       </c>
       <c r="C363" s="12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D363" s="12"/>
       <c r="E363" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F363" s="3"/>
       <c r="G363" s="3" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A364" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B364" s="4">
         <v>4</v>
       </c>
       <c r="C364" s="12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D364" s="12"/>
       <c r="E364" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F364" s="3"/>
       <c r="G364" s="3" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="B365" s="4">
         <v>2</v>
       </c>
       <c r="C365" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D365" s="9"/>
       <c r="E365" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F365" s="1"/>
       <c r="G365" s="1" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
       <c r="B366" s="4">
         <v>3</v>
       </c>
       <c r="C366" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D366" s="12"/>
       <c r="E366" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F366" s="3"/>
       <c r="G366" s="3" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A367" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B367" s="4">
         <v>4</v>
       </c>
       <c r="C367" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D367" s="12"/>
       <c r="E367" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F367" s="3"/>
       <c r="G367" s="3" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A368" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B368" s="4">
         <v>4</v>
       </c>
       <c r="C368" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D368" s="12"/>
       <c r="E368" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F368" s="3"/>
       <c r="G368" s="3" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
       <c r="B369" s="4">
         <v>2</v>
       </c>
       <c r="C369" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D369" s="9"/>
       <c r="E369" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F369" s="1"/>
       <c r="G369" s="1" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
       <c r="B370" s="4">
         <v>3</v>
       </c>
       <c r="C370" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D370" s="12"/>
       <c r="E370" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F370" s="3"/>
       <c r="G370" s="3" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A371" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B371" s="4">
         <v>4</v>
       </c>
       <c r="C371" s="12" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D371" s="12"/>
       <c r="E371" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F371" s="3"/>
       <c r="G371" s="3" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A372" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B372" s="4">
         <v>4</v>
       </c>
       <c r="C372" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D372" s="12"/>
       <c r="E372" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F372" s="3"/>
       <c r="G372" s="3" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A373" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B373" s="4">
         <v>4</v>
       </c>
       <c r="C373" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D373" s="12"/>
       <c r="E373" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F373" s="3"/>
       <c r="G373" s="3" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A374" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B374" s="4">
         <v>4</v>
       </c>
       <c r="C374" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D374" s="12"/>
       <c r="E374" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F374" s="3"/>
       <c r="G374" s="3" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A375" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B375" s="4">
         <v>4</v>
       </c>
       <c r="C375" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D375" s="12"/>
       <c r="E375" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F375" s="3"/>
       <c r="G375" s="3" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A376" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B376" s="4">
         <v>4</v>
       </c>
       <c r="C376" s="12" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D376" s="12"/>
       <c r="E376" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F376" s="3"/>
       <c r="G376" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
   </sheetData>

--- a/tools/aicpa/SOC2_2017_with_rev_2022.xlsx
+++ b/tools/aicpa/SOC2_2017_with_rev_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/aicpa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C2C304-3412-F846-8971-2220FF7A7628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0636A7-AB61-9442-BA3D-3D4AFC5722EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="500" windowWidth="34240" windowHeight="20580" xr2:uid="{D01D941C-8F4B-437A-8397-2B749EA54579}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="1193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="1194">
   <si>
     <t>System Operations</t>
   </si>
@@ -3673,6 +3673,9 @@
   </si>
   <si>
     <t>CC5</t>
+  </si>
+  <si>
+    <t>SOC2-2017 Trust Services Criteria (revision 2022)</t>
   </si>
 </sst>
 </file>
@@ -4209,7 +4212,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -4260,7 +4263,7 @@
         <v>1144</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>1145</v>
+        <v>1193</v>
       </c>
       <c r="C5" s="31"/>
     </row>
@@ -4332,7 +4335,7 @@
         <v>1155</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>1145</v>
+        <v>1193</v>
       </c>
       <c r="C13" s="31"/>
     </row>
